--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B91C1C0-8AF3-5B4A-B997-D819EB705236}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3B91C1C0-8AF3-5B4A-B997-D819EB705236}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8840" windowWidth="40960" windowHeight="16760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="16760" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8840"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="execution_count" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="execution_count" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1548,13 +1548,23 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1631,8 +1641,311 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,8 +1964,467 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1690,148 +2462,1138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="85">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1865,7 +3627,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1890,10 +3652,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1928,7 +3690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1963,7 +3725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2057,21 +3819,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2088,7 +3850,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2140,26 +3902,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2242,7 +4004,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2325,7 +4087,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -2402,7 +4164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +4235,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2538,7 +4300,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +4359,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2653,7 +4415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2706,7 +4468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>348</v>
       </c>
@@ -2750,7 +4512,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2788,7 +4550,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -2823,7 +4585,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2855,7 +4617,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -2887,7 +4649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2919,7 +4681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -2945,7 +4707,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2968,7 +4730,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>397</v>
       </c>
@@ -2988,7 +4750,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>413</v>
       </c>
@@ -3005,7 +4767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>414</v>
       </c>
@@ -3016,13 +4778,13 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>358</v>
       </c>
@@ -3033,13 +4795,13 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>398</v>
       </c>
@@ -3050,13 +4812,13 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3067,13 +4829,13 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3084,13 +4846,13 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3101,13 +4863,13 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3117,11 +4879,14 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -3135,7 +4900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -3149,9 +4914,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="D28" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -3160,9 +4925,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -3171,9 +4936,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -3182,9 +4947,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -3193,9 +4958,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -3204,9 +4969,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -3215,9 +4980,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -3226,9 +4991,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -3237,9 +5002,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -3248,7 +5013,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -3256,7 +5024,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -3264,7 +5035,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>79</v>
       </c>
@@ -3272,7 +5043,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>213</v>
       </c>
@@ -3280,7 +5051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>290</v>
       </c>
@@ -3288,7 +5059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>301</v>
       </c>
@@ -3296,7 +5067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>302</v>
       </c>
@@ -3304,7 +5075,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>344</v>
       </c>
@@ -3312,7 +5083,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>343</v>
       </c>
@@ -3320,7 +5091,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>212</v>
       </c>
@@ -3328,7 +5099,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>321</v>
       </c>
@@ -3336,7 +5107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>340</v>
       </c>
@@ -3344,7 +5115,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>369</v>
       </c>
@@ -3352,7 +5123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>303</v>
       </c>
@@ -3360,7 +5131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>357</v>
       </c>
@@ -3368,7 +5139,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
@@ -3376,7 +5147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
@@ -3384,7 +5155,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
@@ -3392,7 +5163,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
@@ -3400,7 +5171,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
@@ -3408,7 +5179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
@@ -3416,7 +5187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
@@ -3424,7 +5195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
@@ -3432,7 +5203,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
@@ -3440,7 +5211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
@@ -3448,7 +5219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
@@ -3456,7 +5227,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
@@ -3464,7 +5235,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
@@ -3472,7 +5243,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
@@ -3480,7 +5251,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
@@ -3488,7 +5259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
@@ -3496,7 +5267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
@@ -3504,7 +5275,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
@@ -3512,7 +5283,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
@@ -3520,7 +5291,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
@@ -3528,7 +5299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
@@ -3536,7 +5307,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
@@ -3544,7 +5315,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
@@ -3552,7 +5323,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
@@ -3560,7 +5331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
@@ -3568,7 +5339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>430</v>
       </c>
@@ -3576,7 +5347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
@@ -3584,7 +5355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
@@ -3592,7 +5363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
@@ -3600,7 +5371,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
@@ -3608,7 +5379,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
@@ -3616,7 +5387,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
@@ -3624,7 +5395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
@@ -3632,7 +5403,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
@@ -3640,7 +5411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
@@ -3648,7 +5419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
@@ -3656,7 +5427,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
@@ -3664,7 +5435,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
@@ -3672,7 +5443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
@@ -3680,7 +5451,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
@@ -3688,7 +5459,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
@@ -3696,172 +5467,172 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="V93" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="V94" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="V95" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="V96" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="V97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="V98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="V99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="V100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="V101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="V102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="V103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="V104" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="V105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="V106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="V107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="V108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="V109" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="V110" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="111" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="V111" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="V112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="V113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="V114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="V115" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="V116" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="V117" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="V118" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="45.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +5663,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
@@ -3913,7 +5684,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3930,7 +5701,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>222</v>
       </c>
@@ -3975,7 +5746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>469</v>
       </c>
@@ -4002,7 +5773,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4025,7 +5796,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4048,7 +5819,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>476</v>
@@ -4075,7 +5846,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>479</v>
@@ -4102,7 +5873,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4127,7 +5898,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4152,7 +5923,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>487</v>
@@ -4179,7 +5950,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>488</v>
@@ -4206,7 +5977,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4231,7 +6002,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>489</v>
@@ -4258,7 +6029,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>492</v>
@@ -4285,7 +6056,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>493</v>
@@ -4312,7 +6083,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4329,7 +6100,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4346,7 +6117,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4363,7 +6134,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4380,7 +6151,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4397,7 +6168,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4414,7 +6185,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4431,7 +6202,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4448,7 +6219,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4465,7 +6236,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4482,7 +6253,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4499,7 +6270,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4516,7 +6287,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4533,7 +6304,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4550,7 +6321,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4567,7 +6338,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4584,7 +6355,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4601,7 +6372,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4618,7 +6389,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4635,7 +6406,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4652,7 +6423,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4669,7 +6440,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4686,7 +6457,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4703,7 +6474,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4720,7 +6491,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4737,7 +6508,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4754,7 +6525,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4771,7 +6542,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4788,7 +6559,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4805,7 +6576,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4822,7 +6593,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4839,7 +6610,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4856,7 +6627,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4873,7 +6644,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4890,7 +6661,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4907,7 +6678,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4924,7 +6695,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4941,7 +6712,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4958,7 +6729,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4975,7 +6746,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4992,7 +6763,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5009,7 +6780,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5026,7 +6797,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5043,7 +6814,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5060,7 +6831,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5077,7 +6848,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5094,7 +6865,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5111,7 +6882,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5128,7 +6899,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5145,7 +6916,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5162,7 +6933,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5179,7 +6950,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5196,7 +6967,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5213,7 +6984,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5230,7 +7001,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5247,7 +7018,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5264,7 +7035,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5281,7 +7052,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5298,7 +7069,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5315,7 +7086,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5332,7 +7103,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5349,7 +7120,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5366,7 +7137,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5383,7 +7154,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5400,7 +7171,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5417,7 +7188,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5434,7 +7205,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5451,7 +7222,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5468,7 +7239,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5485,7 +7256,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5502,7 +7273,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5519,7 +7290,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5536,7 +7307,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5553,7 +7324,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5570,7 +7341,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5587,7 +7358,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5604,7 +7375,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5621,7 +7392,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5638,7 +7409,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5655,7 +7426,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5672,7 +7443,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5689,7 +7460,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5706,7 +7477,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5723,7 +7494,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5740,7 +7511,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5757,7 +7528,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5774,7 +7545,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5791,7 +7562,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5808,7 +7579,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5825,7 +7596,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5842,7 +7613,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5859,7 +7630,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5876,7 +7647,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5893,7 +7664,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5910,7 +7681,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5927,7 +7698,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5944,7 +7715,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5961,7 +7732,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5978,7 +7749,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5995,7 +7766,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6012,7 +7783,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6029,7 +7800,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6046,7 +7817,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6063,7 +7834,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6080,7 +7851,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6097,7 +7868,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6114,7 +7885,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6131,7 +7902,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6148,7 +7919,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6165,7 +7936,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6182,7 +7953,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6199,7 +7970,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6216,7 +7987,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6233,7 +8004,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6250,7 +8021,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6267,7 +8038,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6284,7 +8055,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6301,7 +8072,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6318,7 +8089,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6335,7 +8106,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6352,7 +8123,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6369,7 +8140,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6386,7 +8157,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6403,7 +8174,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6420,7 +8191,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6437,7 +8208,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6454,7 +8225,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6471,7 +8242,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6488,7 +8259,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6505,7 +8276,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6522,7 +8293,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6539,7 +8310,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6556,7 +8327,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6573,7 +8344,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6590,7 +8361,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6607,7 +8378,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6624,7 +8395,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6641,7 +8412,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6658,7 +8429,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6675,7 +8446,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6692,7 +8463,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6709,7 +8480,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6726,7 +8497,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6743,7 +8514,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6760,7 +8531,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6777,7 +8548,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6794,7 +8565,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6811,7 +8582,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6828,7 +8599,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6845,7 +8616,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6862,7 +8633,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6879,7 +8650,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6896,7 +8667,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6913,7 +8684,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6930,7 +8701,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6947,7 +8718,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6964,7 +8735,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6981,7 +8752,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6998,7 +8769,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7015,7 +8786,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7032,7 +8803,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7049,7 +8820,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7066,7 +8837,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7083,7 +8854,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7100,7 +8871,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7117,7 +8888,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7134,7 +8905,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7151,7 +8922,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7168,7 +8939,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7185,7 +8956,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7202,7 +8973,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7219,7 +8990,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7236,7 +9007,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7253,7 +9024,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7270,7 +9041,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7287,7 +9058,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7304,7 +9075,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7321,7 +9092,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7338,7 +9109,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7355,7 +9126,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7372,7 +9143,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7389,7 +9160,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7406,7 +9177,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7423,7 +9194,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7440,7 +9211,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7457,7 +9228,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7474,7 +9245,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7491,7 +9262,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7508,7 +9279,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7525,7 +9296,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7542,7 +9313,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7559,7 +9330,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7576,7 +9347,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7593,7 +9364,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7610,7 +9381,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7627,7 +9398,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7644,7 +9415,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7661,7 +9432,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7678,7 +9449,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7695,7 +9466,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7712,7 +9483,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7729,7 +9500,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7746,7 +9517,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7763,7 +9534,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7780,7 +9551,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7797,7 +9568,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7814,7 +9585,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7831,7 +9602,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7848,7 +9619,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7865,7 +9636,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7882,7 +9653,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7899,7 +9670,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7916,7 +9687,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7933,7 +9704,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7950,7 +9721,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7967,7 +9738,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7984,7 +9755,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8001,7 +9772,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8018,7 +9789,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8035,7 +9806,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8052,7 +9823,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8069,7 +9840,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8086,7 +9857,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8103,7 +9874,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8120,7 +9891,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8137,7 +9908,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8154,7 +9925,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8171,7 +9942,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8188,7 +9959,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8205,7 +9976,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8222,7 +9993,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8239,7 +10010,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8256,7 +10027,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8273,7 +10044,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8290,7 +10061,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8307,7 +10078,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8324,7 +10095,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8341,7 +10112,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8358,7 +10129,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8375,7 +10146,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8392,7 +10163,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8409,7 +10180,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8426,7 +10197,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8443,7 +10214,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8460,7 +10231,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8477,7 +10248,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8494,7 +10265,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8511,7 +10282,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8528,7 +10299,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8545,7 +10316,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8562,7 +10333,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8579,7 +10350,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8596,7 +10367,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8613,7 +10384,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8630,7 +10401,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8647,7 +10418,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8664,7 +10435,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8681,7 +10452,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8698,7 +10469,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8715,7 +10486,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8732,7 +10503,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8749,7 +10520,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8766,7 +10537,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8783,7 +10554,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8800,7 +10571,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8817,7 +10588,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8834,7 +10605,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8851,7 +10622,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8868,7 +10639,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8885,7 +10656,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8902,7 +10673,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8919,7 +10690,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8936,7 +10707,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8953,7 +10724,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8970,7 +10741,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8987,7 +10758,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9004,7 +10775,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9021,7 +10792,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9038,7 +10809,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9055,7 +10826,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9072,7 +10843,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9089,7 +10860,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9106,7 +10877,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9123,7 +10894,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9140,7 +10911,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9157,7 +10928,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9174,7 +10945,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9191,7 +10962,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9208,7 +10979,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9225,7 +10996,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9242,7 +11013,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9259,7 +11030,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9276,7 +11047,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9293,7 +11064,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9310,7 +11081,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9327,7 +11098,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9344,7 +11115,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9361,7 +11132,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9378,7 +11149,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9395,7 +11166,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9412,7 +11183,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9429,7 +11200,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9446,7 +11217,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9463,7 +11234,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9480,7 +11251,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9497,7 +11268,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9514,7 +11285,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9531,7 +11302,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9548,7 +11319,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9565,7 +11336,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9582,7 +11353,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9599,7 +11370,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9616,7 +11387,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9633,7 +11404,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9650,7 +11421,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9667,7 +11438,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9684,7 +11455,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9701,7 +11472,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9718,7 +11489,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9735,7 +11506,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9752,7 +11523,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9769,7 +11540,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9786,7 +11557,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9803,7 +11574,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9820,7 +11591,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9837,7 +11608,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9854,7 +11625,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9871,7 +11642,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9888,7 +11659,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9905,7 +11676,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9922,7 +11693,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9939,7 +11710,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9956,7 +11727,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9973,7 +11744,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9990,7 +11761,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10007,7 +11778,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10024,7 +11795,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10041,7 +11812,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10058,7 +11829,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10075,7 +11846,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10092,7 +11863,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10109,7 +11880,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10126,7 +11897,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10143,7 +11914,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10160,7 +11931,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10177,7 +11948,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10194,7 +11965,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10211,7 +11982,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10228,7 +11999,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10245,7 +12016,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10262,7 +12033,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10279,7 +12050,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10296,7 +12067,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10313,7 +12084,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10330,7 +12101,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10347,7 +12118,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10364,7 +12135,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10381,7 +12152,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10398,7 +12169,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10415,7 +12186,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10432,7 +12203,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10449,7 +12220,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10466,7 +12237,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10483,7 +12254,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10500,7 +12271,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10517,7 +12288,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10534,7 +12305,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10551,7 +12322,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10568,7 +12339,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10585,7 +12356,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10602,7 +12373,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10619,7 +12390,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10636,7 +12407,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10653,7 +12424,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10670,7 +12441,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10687,7 +12458,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10704,7 +12475,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10721,7 +12492,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10738,7 +12509,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10755,7 +12526,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10772,7 +12543,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10789,7 +12560,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10806,7 +12577,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10823,7 +12594,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10840,7 +12611,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10857,7 +12628,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10874,7 +12645,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10891,7 +12662,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10908,7 +12679,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10925,7 +12696,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10942,7 +12713,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10959,7 +12730,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10976,7 +12747,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10993,7 +12764,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11010,7 +12781,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11027,7 +12798,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11044,7 +12815,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11061,7 +12832,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11078,7 +12849,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11095,7 +12866,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11112,7 +12883,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11129,7 +12900,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11146,7 +12917,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11163,7 +12934,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11180,7 +12951,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11197,7 +12968,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11214,7 +12985,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11231,7 +13002,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11248,7 +13019,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11265,7 +13036,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11282,7 +13053,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11299,7 +13070,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11316,7 +13087,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11333,7 +13104,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11350,7 +13121,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11367,7 +13138,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11384,7 +13155,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11401,7 +13172,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11418,7 +13189,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11435,7 +13206,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11452,7 +13223,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11469,7 +13240,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11486,7 +13257,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11503,7 +13274,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11520,7 +13291,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11537,7 +13308,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11554,7 +13325,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11571,7 +13342,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11588,7 +13359,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11605,7 +13376,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11622,7 +13393,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11639,7 +13410,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11656,7 +13427,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11673,7 +13444,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11690,7 +13461,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11707,7 +13478,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11724,7 +13495,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11741,7 +13512,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11758,7 +13529,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11775,7 +13546,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11792,7 +13563,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11809,7 +13580,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11826,7 +13597,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11843,7 +13614,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11860,7 +13631,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11877,7 +13648,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11894,7 +13665,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11911,7 +13682,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11928,7 +13699,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11945,7 +13716,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11962,7 +13733,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11979,7 +13750,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11996,7 +13767,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12013,7 +13784,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12030,7 +13801,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12047,7 +13818,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12064,7 +13835,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12081,7 +13852,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12098,7 +13869,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12115,7 +13886,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12132,7 +13903,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12149,7 +13920,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12166,7 +13937,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12183,7 +13954,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12200,7 +13971,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12217,7 +13988,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12234,7 +14005,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12251,7 +14022,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12268,7 +14039,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12285,7 +14056,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12302,7 +14073,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12319,7 +14090,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12336,7 +14107,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12353,7 +14124,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12370,7 +14141,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12387,7 +14158,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12404,7 +14175,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12421,7 +14192,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12438,7 +14209,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12455,7 +14226,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12472,7 +14243,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12489,7 +14260,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12506,7 +14277,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12523,7 +14294,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12540,7 +14311,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12557,7 +14328,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12574,7 +14345,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12591,7 +14362,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12608,7 +14379,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12625,7 +14396,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12642,7 +14413,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12659,7 +14430,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12676,7 +14447,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12693,7 +14464,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12710,7 +14481,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12727,7 +14498,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12744,7 +14515,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12761,7 +14532,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12778,7 +14549,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12795,7 +14566,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12812,7 +14583,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12829,7 +14600,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12846,7 +14617,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12863,7 +14634,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12880,7 +14651,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12897,7 +14668,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12914,7 +14685,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12931,7 +14702,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12948,7 +14719,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12965,7 +14736,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12982,7 +14753,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12999,7 +14770,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13016,7 +14787,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13033,7 +14804,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13050,7 +14821,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13067,7 +14838,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13084,7 +14855,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13101,7 +14872,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13118,7 +14889,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13135,7 +14906,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13152,7 +14923,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13169,7 +14940,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13186,7 +14957,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13203,7 +14974,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13220,7 +14991,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13237,7 +15008,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13254,7 +15025,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13271,7 +15042,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13288,7 +15059,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13305,7 +15076,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13322,7 +15093,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13339,7 +15110,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13356,7 +15127,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13373,7 +15144,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13390,7 +15161,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13407,7 +15178,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13424,7 +15195,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13441,7 +15212,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13458,7 +15229,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13475,7 +15246,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13492,7 +15263,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13509,7 +15280,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13526,7 +15297,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13543,7 +15314,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13560,7 +15331,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13577,7 +15348,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13594,7 +15365,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13611,7 +15382,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13628,7 +15399,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13645,7 +15416,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13662,7 +15433,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13679,7 +15450,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13696,7 +15467,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13713,7 +15484,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13730,7 +15501,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13747,7 +15518,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13764,7 +15535,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13781,7 +15552,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13798,7 +15569,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13815,7 +15586,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13832,7 +15603,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13849,7 +15620,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13866,7 +15637,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13883,7 +15654,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13900,7 +15671,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13917,7 +15688,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13934,7 +15705,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13951,7 +15722,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13968,7 +15739,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13985,7 +15756,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14002,7 +15773,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14019,7 +15790,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14036,7 +15807,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14053,7 +15824,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14070,7 +15841,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14087,7 +15858,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14104,7 +15875,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14121,7 +15892,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14138,7 +15909,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14155,7 +15926,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14172,7 +15943,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14189,7 +15960,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14206,7 +15977,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14223,7 +15994,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14240,7 +16011,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14257,7 +16028,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14274,7 +16045,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14291,7 +16062,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14308,7 +16079,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14325,7 +16096,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14342,7 +16113,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14359,7 +16130,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14376,7 +16147,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14393,7 +16164,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14410,7 +16181,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14427,7 +16198,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14444,7 +16215,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14461,7 +16232,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14478,7 +16249,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14495,7 +16266,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14512,7 +16283,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14529,7 +16300,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14546,7 +16317,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14563,7 +16334,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14580,7 +16351,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14597,7 +16368,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14614,7 +16385,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14631,7 +16402,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14648,7 +16419,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14665,7 +16436,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14682,7 +16453,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14699,7 +16470,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14716,7 +16487,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14733,7 +16504,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14750,7 +16521,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14767,7 +16538,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14784,7 +16555,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14801,7 +16572,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14818,7 +16589,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14835,7 +16606,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14852,7 +16623,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14869,7 +16640,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14886,7 +16657,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14903,7 +16674,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14920,7 +16691,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14937,7 +16708,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14954,7 +16725,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14971,7 +16742,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14988,7 +16759,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -15005,7 +16776,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -15022,7 +16793,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15039,360 +16810,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15400,24 +17171,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1557,6 +1557,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1570,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1944,8 +1950,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,8 +2530,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3308,6 +3568,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3315,7 +3857,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3540,52 +4082,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4567,7 +5157,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -4602,7 +5192,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -4634,7 +5224,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -4666,7 +5256,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -4694,6 +5284,9 @@
       <c r="J15" t="s">
         <v>464</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -4719,6 +5312,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1563,6 +1563,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1579,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2051,8 +2060,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2683,8 +2793,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3850,6 +4113,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3857,7 +4402,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4130,52 +4675,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4500,7 +5093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5099,7 +5692,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10">
@@ -5137,7 +5730,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
@@ -5172,7 +5765,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -5206,6 +5799,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5238,6 +5834,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5828,7 +6427,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
@@ -5836,7 +6435,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -5844,7 +6443,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -5852,7 +6451,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67">
@@ -5860,7 +6459,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -5868,7 +6467,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -5876,7 +6475,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5884,7 +6483,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5892,7 +6491,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -5900,7 +6499,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -5908,7 +6507,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74">
@@ -5916,7 +6515,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75">
@@ -5924,7 +6523,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -5932,7 +6531,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -5940,7 +6539,7 @@
         <v>430</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -5948,7 +6547,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -5956,7 +6555,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -5964,7 +6563,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -5972,7 +6571,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -5980,7 +6579,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83">
@@ -5988,7 +6587,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -5996,7 +6595,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -6004,7 +6603,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -6012,7 +6611,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -6020,7 +6619,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -6028,7 +6627,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
@@ -6036,7 +6635,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90">
@@ -6044,7 +6643,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -6052,7 +6651,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -6060,141 +6659,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -25,30 +25,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1572,6 +1573,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1607,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2161,8 +2189,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2946,8 +3075,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4395,6 +4677,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4402,7 +4966,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4723,52 +5287,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5093,7 +5705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5142,48 +5754,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>503</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>415</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5225,48 +5840,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" t="s">
         <v>418</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>420</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>421</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>433</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5293,7 +5911,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>504</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -5307,43 +5925,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>507</v>
+      </c>
+      <c r="O3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>422</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5366,6 +5987,9 @@
       <c r="G4" t="s">
         <v>452</v>
       </c>
+      <c r="H4" t="s">
+        <v>505</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -5378,43 +6002,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>508</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>425</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5446,40 +6073,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>424</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>426</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5508,37 +6135,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>446</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5564,37 +6191,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>419</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>447</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>428</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5620,34 +6247,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>429</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5673,25 +6300,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>501</v>
       </c>
     </row>
@@ -5714,22 +6341,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>438</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5752,19 +6379,19 @@
       <c r="L11" t="s">
         <v>498</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5787,25 +6414,25 @@
       <c r="L12" t="s">
         <v>437</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -5822,25 +6449,25 @@
       <c r="L13" t="s">
         <v>499</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -5857,22 +6484,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -5886,22 +6513,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -5915,19 +6542,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -5938,16 +6565,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>416</v>
@@ -5958,13 +6585,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -5975,13 +6602,13 @@
       <c r="J19" t="s">
         <v>497</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -5992,13 +6619,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -6009,13 +6636,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -6026,13 +6653,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -6043,13 +6670,13 @@
       <c r="J23" t="s">
         <v>435</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -6060,13 +6687,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>450</v>
@@ -6077,13 +6704,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -6091,13 +6718,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -6105,18 +6732,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6127,7 +6757,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6138,7 +6768,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6149,7 +6779,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6160,7 +6790,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6171,7 +6801,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6182,7 +6812,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6193,7 +6823,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6204,7 +6834,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6215,7 +6845,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6226,7 +6856,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6234,7 +6864,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6242,7 +6872,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6250,7 +6880,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6258,7 +6888,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6266,7 +6896,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6274,7 +6904,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6282,7 +6912,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6290,7 +6920,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6298,7 +6928,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6306,7 +6936,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6314,7 +6944,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6322,7 +6952,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6330,475 +6960,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>465</v>
+      <c r="W51" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>466</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>441</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>500</v>
+      <c r="W63" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>442</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>454</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>467</v>
+      <c r="W74" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>430</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>455</v>
+      <c r="W82" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>443</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>444</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1607,7 +1607,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2290,8 +2290,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3228,8 +3329,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4959,6 +5213,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4966,7 +5502,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5335,52 +5871,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -19,37 +19,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1600,6 +1601,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1638,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2391,8 +2422,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3482,8 +3715,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5495,6 +6034,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5502,7 +6605,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5919,52 +7022,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6289,7 +7488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6311,78 +7510,81 @@
         <v>456</v>
       </c>
       <c r="D1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>503</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>414</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6397,79 +7599,82 @@
         <v>457</v>
       </c>
       <c r="D2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>451</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>462</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>506</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>418</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>420</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>433</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="3">
@@ -6483,1546 +7688,1573 @@
         <v>458</v>
       </c>
       <c r="D3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" t="s">
         <v>459</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>504</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>432</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>452</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>505</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>423</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>425</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" t="s">
         <v>460</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>461</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>463</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>426</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>449</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>446</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>427</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>419</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>447</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>428</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>429</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>501</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>453</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>438</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>502</v>
+      <c r="AC10" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>498</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>437</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>499</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>464</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>468</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>416</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>497</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>435</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>450</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>495</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>496</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>417</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>430</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5469" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1631,6 +1631,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2624,8 +2636,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4021,8 +4134,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6598,6 +6864,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6605,7 +7153,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7118,52 +7666,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7488,7 +8084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8260,7 +8856,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14">
@@ -8295,7 +8891,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15">
@@ -8327,7 +8923,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16">
@@ -8356,7 +8952,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17">
@@ -8379,7 +8975,7 @@
         <v>468</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18">
@@ -8399,7 +8995,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19">
@@ -8418,6 +9014,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8435,6 +9034,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -8452,6 +9054,9 @@
       <c r="X21" t="s">
         <v>509</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -9001,7 +9606,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80">
@@ -9009,7 +9614,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -9017,7 +9622,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -9025,7 +9630,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>511</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -9033,7 +9638,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84">
@@ -9041,7 +9646,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -9049,7 +9654,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86">
@@ -9057,7 +9662,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -9065,7 +9670,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -9073,7 +9678,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -9081,7 +9686,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -9089,7 +9694,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -9097,7 +9702,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92">
@@ -9105,156 +9710,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -34,7 +34,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5469" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6490" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1643,6 +1643,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2737,8 +2746,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4287,8 +4498,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7146,6 +7663,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7153,7 +8234,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7714,52 +8795,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8084,7 +9261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8911,7 +10088,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>526</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -8942,6 +10119,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>527</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -8969,7 +10149,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>528</v>
       </c>
       <c r="AA17" t="s">
         <v>468</v>
@@ -8992,7 +10172,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>525</v>
@@ -9012,7 +10192,7 @@
         <v>497</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -9032,7 +10212,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -9052,7 +10232,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>509</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -9072,7 +10252,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23">
@@ -9089,7 +10269,7 @@
         <v>435</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -9106,7 +10286,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -9123,7 +10303,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -9137,7 +10317,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -9151,7 +10331,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -9165,7 +10345,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -9179,7 +10359,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -9190,7 +10370,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -9201,7 +10381,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -9212,7 +10392,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -9223,7 +10403,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -9234,7 +10414,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -9245,7 +10425,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -9256,7 +10436,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -9267,7 +10447,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -9278,7 +10458,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39">
@@ -9286,7 +10466,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -9294,7 +10474,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -9302,7 +10482,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -9310,7 +10490,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -9318,7 +10498,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -9326,7 +10506,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -9334,7 +10514,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -9342,7 +10522,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47">
@@ -9350,7 +10530,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -9358,7 +10538,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -9366,7 +10546,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -9374,7 +10554,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -9382,7 +10562,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>510</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -9390,7 +10570,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53">
@@ -9398,7 +10578,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
@@ -9406,7 +10586,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -9414,7 +10594,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -9422,7 +10602,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57">
@@ -9430,7 +10610,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -9438,7 +10618,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -9446,7 +10626,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -9454,7 +10634,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -9462,7 +10642,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -9470,7 +10650,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -9478,7 +10658,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -9486,7 +10666,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -9494,7 +10674,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66">
@@ -9502,7 +10682,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -9510,7 +10690,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -9518,7 +10698,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
@@ -9526,7 +10706,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -9534,7 +10714,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -9542,7 +10722,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -9550,7 +10730,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -9558,7 +10738,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -9566,7 +10746,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -9574,7 +10754,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76">
@@ -9582,7 +10762,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77">
@@ -9590,7 +10770,7 @@
         <v>430</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -9598,7 +10778,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -9606,7 +10786,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>522</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -9614,7 +10794,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81">
@@ -9622,7 +10802,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -9630,7 +10810,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -9638,7 +10818,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>511</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -9646,7 +10826,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85">
@@ -9654,7 +10834,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -9662,7 +10842,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87">
@@ -9670,7 +10850,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -9678,7 +10858,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -9686,7 +10866,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -9694,7 +10874,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -9702,7 +10882,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -9710,161 +10890,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -20,14 +20,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6490" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7006" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1652,6 +1652,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2948,8 +2963,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4804,8 +4920,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8227,6 +8496,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8234,7 +8785,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8891,52 +9442,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9261,7 +9860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9691,6 +10290,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>529</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -9813,7 +10415,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -9866,7 +10468,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -9907,7 +10509,7 @@
         <v>453</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -9945,7 +10547,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>531</v>
       </c>
       <c r="M11" t="s">
         <v>498</v>
@@ -9980,7 +10582,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>437</v>
@@ -10015,7 +10617,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>499</v>
@@ -10050,7 +10652,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -10082,7 +10684,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -10114,7 +10716,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -10146,7 +10748,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>528</v>
@@ -10169,7 +10771,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -10189,7 +10791,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>497</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -10209,7 +10811,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -10229,7 +10831,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -10249,7 +10851,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="X22" t="s">
         <v>509</v>
@@ -10266,7 +10868,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -10283,7 +10885,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -10300,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -10316,6 +10918,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -10330,6 +10935,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -10344,6 +10952,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -10930,126 +11541,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7006" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1667,6 +1667,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1680,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3064,8 +3070,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5073,8 +5180,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8778,6 +9038,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8785,7 +9327,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9490,52 +10032,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11011,7 +11601,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>534</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -11022,7 +11612,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -11033,7 +11623,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -11044,7 +11634,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -11055,7 +11645,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -11066,7 +11656,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>439</v>
@@ -11074,7 +11664,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -11082,7 +11672,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -11090,7 +11680,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -11098,7 +11688,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -11106,7 +11696,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -11114,7 +11704,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -11122,7 +11712,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -11130,7 +11720,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>440</v>
@@ -11138,7 +11728,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -11146,7 +11736,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -11154,7 +11744,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -11162,7 +11752,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -11170,7 +11760,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -11178,7 +11768,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>510</v>
@@ -11186,7 +11776,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>465</v>
@@ -11194,7 +11784,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -11202,7 +11792,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -11210,7 +11800,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>466</v>
@@ -11218,7 +11808,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -11226,7 +11816,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -11234,7 +11824,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -11242,7 +11832,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -11250,7 +11840,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -11258,7 +11848,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -11266,7 +11856,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -11274,7 +11864,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>441</v>
@@ -11282,7 +11872,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>500</v>
@@ -11290,7 +11880,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -11298,7 +11888,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -11306,7 +11896,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>442</v>
@@ -11314,7 +11904,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -11322,7 +11912,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -11330,7 +11920,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -11338,7 +11928,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -11346,7 +11936,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -11354,7 +11944,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>535</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -11362,7 +11952,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>454</v>
@@ -11370,7 +11960,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>467</v>
@@ -11378,7 +11968,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -11386,7 +11976,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -11394,7 +11984,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -11402,7 +11992,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>522</v>
@@ -11410,7 +12000,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -11418,7 +12008,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -11426,7 +12016,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -11434,7 +12024,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>511</v>
@@ -11442,7 +12032,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -11450,7 +12040,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>455</v>
@@ -11458,7 +12048,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -11466,7 +12056,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -11474,7 +12064,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -11482,7 +12072,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -11490,7 +12080,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -11498,18 +12088,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1673,6 +1673,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1686,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3171,8 +3177,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5333,8 +5440,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9320,6 +9597,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9327,7 +9886,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10080,52 +10639,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10450,7 +11057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12142,126 +12749,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -30,27 +30,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8572" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1679,6 +1680,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1708,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3278,8 +3300,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="412">
+  <fills count="442">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5610,8 +5733,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9879,6 +10172,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9886,7 +10461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10687,52 +11262,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="414" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="417" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="423" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="432" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="435" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="435" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11057,7 +11680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11109,51 +11732,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>414</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11198,51 +11824,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>418</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>431</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>399</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>420</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>421</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>433</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -11287,45 +11916,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>540</v>
+      </c>
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>432</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>422</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11367,45 +11999,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>423</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>425</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11440,40 +12075,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>424</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>426</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11505,37 +12143,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>403</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>427</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11561,37 +12202,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>419</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>447</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>428</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11617,34 +12261,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>405</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>429</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -11670,25 +12314,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>406</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -11711,22 +12355,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>438</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>501</v>
       </c>
     </row>
@@ -11749,19 +12393,19 @@
       <c r="M11" t="s">
         <v>498</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>518</v>
       </c>
     </row>
@@ -11784,19 +12428,19 @@
       <c r="M12" t="s">
         <v>437</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11819,25 +12463,25 @@
       <c r="M13" t="s">
         <v>499</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -11854,25 +12498,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>503</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -11886,25 +12530,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>526</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -11918,25 +12562,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>527</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -11947,19 +12591,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>468</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>416</v>
@@ -11970,16 +12614,16 @@
       <c r="K18" t="s">
         <v>464</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -11990,16 +12634,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -12010,16 +12654,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -12030,16 +12674,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -12050,13 +12694,13 @@
       <c r="K22" t="s">
         <v>497</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -12067,13 +12711,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -12084,13 +12728,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>450</v>
@@ -12101,13 +12745,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -12118,13 +12762,13 @@
       <c r="K26" t="s">
         <v>435</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -12135,13 +12779,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>495</v>
@@ -12152,13 +12796,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>496</v>
@@ -12166,18 +12810,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>417</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12188,7 +12835,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12199,7 +12846,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12210,7 +12857,7 @@
       <c r="G33" t="s">
         <v>534</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12221,7 +12868,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12232,7 +12879,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12243,7 +12890,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12254,7 +12901,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -12265,7 +12912,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12273,7 +12920,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -12281,7 +12928,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12289,7 +12936,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12297,7 +12944,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12305,7 +12952,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12313,7 +12960,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12321,7 +12968,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12329,7 +12976,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>440</v>
       </c>
     </row>
@@ -12337,7 +12984,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12345,7 +12992,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12353,7 +13000,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12361,7 +13008,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12369,7 +13016,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12377,7 +13024,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>510</v>
       </c>
     </row>
@@ -12385,7 +13032,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>465</v>
       </c>
     </row>
@@ -12393,7 +13040,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12401,7 +13048,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -12409,7 +13056,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>466</v>
       </c>
     </row>
@@ -12417,7 +13064,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12425,7 +13072,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12433,7 +13080,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12441,7 +13088,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12449,7 +13096,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12457,7 +13104,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12465,7 +13112,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12473,7 +13120,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>441</v>
       </c>
     </row>
@@ -12481,7 +13128,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>500</v>
       </c>
     </row>
@@ -12489,7 +13136,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12497,7 +13144,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12505,7 +13152,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>442</v>
       </c>
     </row>
@@ -12513,7 +13160,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12521,7 +13168,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12529,7 +13176,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12537,7 +13184,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -12545,7 +13192,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12553,7 +13200,7 @@
       <c r="G74" t="s">
         <v>535</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12561,7 +13208,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>454</v>
       </c>
     </row>
@@ -12569,7 +13216,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>467</v>
       </c>
     </row>
@@ -12577,7 +13224,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -12585,7 +13232,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -12593,7 +13240,7 @@
       <c r="G79" t="s">
         <v>430</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12601,7 +13248,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>522</v>
       </c>
     </row>
@@ -12609,7 +13256,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12617,7 +13264,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -12625,7 +13272,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -12633,7 +13280,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>511</v>
       </c>
     </row>
@@ -12641,7 +13288,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -12649,7 +13296,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>455</v>
       </c>
     </row>
@@ -12657,7 +13304,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12665,7 +13312,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -12673,7 +13320,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -12681,7 +13328,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12689,7 +13336,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -12697,7 +13344,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>443</v>
       </c>
     </row>
@@ -12705,7 +13352,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>444</v>
       </c>
     </row>
@@ -12713,172 +13360,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BAC4A-8AD1-904F-BFEE-0649BC82BA3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F29DA-118A-644C-B954-E3EE32DAA908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8840" windowWidth="40960" windowHeight="16760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6580" yWindow="8460" windowWidth="40960" windowHeight="16760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -54,10 +54,16 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -67,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1708,6 +1714,69 @@
   </si>
   <si>
     <t>$(format|upper|${Name.Of.Setup})</t>
+  </si>
+  <si>
+    <t>base64</t>
+  </si>
+  <si>
+    <t>$(format|base64encode|${text1.plain})</t>
+  </si>
+  <si>
+    <t>text1.base64</t>
+  </si>
+  <si>
+    <t>text4.plain</t>
+  </si>
+  <si>
+    <t>$(file|content|${text4.file})</t>
+  </si>
+  <si>
+    <t>text4.base64</t>
+  </si>
+  <si>
+    <t>$(format|base64encode|${text4.plain})</t>
+  </si>
+  <si>
+    <t>$(format|base64encode|${text2.plain})</t>
+  </si>
+  <si>
+    <t>$(format|base64encode|${text3.plain})</t>
+  </si>
+  <si>
+    <t>text2.base64</t>
+  </si>
+  <si>
+    <t>text3.base64</t>
+  </si>
+  <si>
+    <t>encode</t>
+  </si>
+  <si>
+    <t>decode</t>
+  </si>
+  <si>
+    <t>${text1.plain}</t>
+  </si>
+  <si>
+    <t>$(format|base64decode|${text1.base64})</t>
+  </si>
+  <si>
+    <t>${text2.plain}</t>
+  </si>
+  <si>
+    <t>${text3.plain}</t>
+  </si>
+  <si>
+    <t>${text4.plain}</t>
+  </si>
+  <si>
+    <t>$(format|base64decode|${text2.base64})</t>
+  </si>
+  <si>
+    <t>$(format|base64decode|${text3.base64})</t>
+  </si>
+  <si>
+    <t>$(format|base64decode|${text4.base64})</t>
   </si>
 </sst>
 </file>
@@ -15788,16 +15857,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -15976,12 +16046,24 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>548</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -15995,10 +16077,18 @@
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>554</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -16012,10 +16102,18 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>555</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -16029,10 +16127,18 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -16046,10 +16152,18 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>553</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -16062,11 +16176,21 @@
     </row>
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>561</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -16080,10 +16204,18 @@
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -16097,10 +16229,18 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -16114,10 +16254,18 @@
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -32,7 +32,7 @@
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1789,6 +1789,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1808,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2075,8 +2087,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="94">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2435,8 +2548,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3038,6 +3321,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3045,7 +3610,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3226,52 +3791,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="45" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="66" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="81" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="84" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="87" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="87" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3832,7 +4445,7 @@
         <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="E3" t="s">
         <v>456</v>
@@ -3915,7 +4528,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3998,7 +4611,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s">
         <v>457</v>
@@ -4022,7 +4635,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -4068,6 +4681,9 @@
       <c r="B6" t="s">
         <v>374</v>
       </c>
+      <c r="D6" t="s">
+        <v>513</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -4090,7 +4706,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -4149,7 +4765,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -4208,7 +4824,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -4264,7 +4880,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -4308,7 +4924,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q10" t="s">
         <v>435</v>
@@ -4348,6 +4964,9 @@
       <c r="M11" t="s">
         <v>495</v>
       </c>
+      <c r="N11" t="s">
+        <v>540</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -4383,6 +5002,9 @@
       <c r="M12" t="s">
         <v>434</v>
       </c>
+      <c r="N12" t="s">
+        <v>541</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -4698,7 +5320,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -27,7 +27,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1801,6 +1801,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1814,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2188,8 +2194,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="94">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2718,8 +2825,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3603,6 +3880,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3610,7 +4169,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3839,52 +4398,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="66" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="66" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="81" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="81" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="84" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="84" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="87" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="87" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4239,7 +4846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4625,6 +5232,9 @@
       <c r="H5" t="s">
         <v>458</v>
       </c>
+      <c r="I5" t="s">
+        <v>576</v>
+      </c>
       <c r="J5" t="s">
         <v>349</v>
       </c>
@@ -5501,7 +6111,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>391</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40">
@@ -5509,7 +6119,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
@@ -5517,7 +6127,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -5525,7 +6135,7 @@
         <v>287</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -5533,7 +6143,7 @@
         <v>298</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -5541,7 +6151,7 @@
         <v>299</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -5549,7 +6159,7 @@
         <v>341</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -5557,7 +6167,7 @@
         <v>340</v>
       </c>
       <c r="Y46" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -5565,7 +6175,7 @@
         <v>209</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
@@ -5573,7 +6183,7 @@
         <v>318</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
@@ -5581,7 +6191,7 @@
         <v>337</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -5589,7 +6199,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -5597,7 +6207,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -5605,7 +6215,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -5613,7 +6223,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54">
@@ -5621,7 +6231,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -5629,7 +6239,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -5637,7 +6247,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57">
@@ -5645,7 +6255,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
@@ -5653,7 +6263,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -5661,7 +6271,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -5669,7 +6279,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -5677,7 +6287,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -5685,7 +6295,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -5693,7 +6303,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -5701,7 +6311,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -5709,7 +6319,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66">
@@ -5717,7 +6327,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67">
@@ -5725,7 +6335,7 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -5733,7 +6343,7 @@
         <v>351</v>
       </c>
       <c r="Y68" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
@@ -5741,7 +6351,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70">
@@ -5749,7 +6359,7 @@
         <v>408</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -5757,7 +6367,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -5765,7 +6375,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -5773,7 +6383,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -5781,7 +6391,7 @@
         <v>532</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -5789,7 +6399,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -5797,7 +6407,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77">
@@ -5805,7 +6415,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78">
@@ -5813,7 +6423,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -5821,7 +6431,7 @@
         <v>427</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -5829,7 +6439,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>519</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -5837,7 +6447,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82">
@@ -5845,7 +6455,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -5853,7 +6463,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -5861,7 +6471,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>508</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -5869,7 +6479,7 @@
         <v>269</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86">
@@ -5877,7 +6487,7 @@
         <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -5885,7 +6495,7 @@
         <v>270</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88">
@@ -5893,7 +6503,7 @@
         <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -5901,7 +6511,7 @@
         <v>303</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -5909,7 +6519,7 @@
         <v>309</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -5917,7 +6527,7 @@
         <v>293</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
@@ -5925,7 +6535,7 @@
         <v>338</v>
       </c>
       <c r="Y92" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -5933,7 +6543,7 @@
         <v>275</v>
       </c>
       <c r="Y93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94">
@@ -5941,171 +6551,176 @@
         <v>276</v>
       </c>
       <c r="Y94" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -25,13 +25,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -47,12 +47,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1807,6 +1807,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1847,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2295,8 +2328,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="151">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2995,8 +3129,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="147">
     <border>
       <left/>
       <right/>
@@ -4162,6 +4449,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4169,7 +4782,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4446,52 +5059,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="105" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="111" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="114" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="135" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="141" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="144" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="144" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4846,7 +5507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5368,6 +6029,9 @@
       <c r="H7" t="s">
         <v>445</v>
       </c>
+      <c r="J7" t="s">
+        <v>580</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -5408,7 +6072,7 @@
         <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
@@ -5464,7 +6128,7 @@
         <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -5511,7 +6175,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10">
@@ -5552,7 +6216,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>498</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -5590,7 +6254,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>515</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -5610,7 +6274,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
+        <v>581</v>
       </c>
       <c r="N12" t="s">
         <v>541</v>
@@ -5628,7 +6292,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>516</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -5648,7 +6312,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -5663,7 +6327,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14">
@@ -5683,7 +6347,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>496</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -5698,7 +6362,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15">
@@ -5715,7 +6379,7 @@
         <v>529</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>523</v>
@@ -5730,7 +6394,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16">
@@ -5747,7 +6411,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>524</v>
@@ -5762,7 +6426,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17">
@@ -5778,6 +6442,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>525</v>
       </c>
@@ -5785,7 +6452,7 @@
         <v>465</v>
       </c>
       <c r="AD17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18">
@@ -5805,7 +6472,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19">
@@ -5825,7 +6492,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20">
@@ -5845,7 +6512,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21">
@@ -5865,7 +6532,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22">
@@ -5884,6 +6551,9 @@
       <c r="Y22" t="s">
         <v>506</v>
       </c>
+      <c r="AD22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5901,6 +6571,9 @@
       <c r="Y23" t="s">
         <v>108</v>
       </c>
+      <c r="AD23" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5918,6 +6591,9 @@
       <c r="Y24" t="s">
         <v>109</v>
       </c>
+      <c r="AD24" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5935,6 +6611,9 @@
       <c r="Y25" t="s">
         <v>110</v>
       </c>
+      <c r="AD25" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5952,6 +6631,9 @@
       <c r="Y26" t="s">
         <v>111</v>
       </c>
+      <c r="AD26" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5969,6 +6651,9 @@
       <c r="Y27" t="s">
         <v>112</v>
       </c>
+      <c r="AD27" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -6199,7 +6884,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51">
@@ -6207,7 +6892,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -6215,7 +6900,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -6223,7 +6908,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -6231,7 +6916,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55">
@@ -6239,7 +6924,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56">
@@ -6247,7 +6932,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -6255,7 +6940,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
@@ -6263,7 +6948,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59">
@@ -6271,7 +6956,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -6279,7 +6964,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -6287,7 +6972,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -6295,7 +6980,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -6303,7 +6988,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -6311,7 +6996,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -6319,7 +7004,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -6327,7 +7012,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67">
@@ -6335,15 +7020,15 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
+        <v>578</v>
       </c>
       <c r="Y68" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -6351,7 +7036,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
@@ -6359,7 +7044,7 @@
         <v>408</v>
       </c>
       <c r="Y70" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -6367,7 +7052,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -6375,7 +7060,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -6383,7 +7068,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -6391,7 +7076,7 @@
         <v>532</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -6399,7 +7084,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +7092,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -6415,7 +7100,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78">
@@ -6423,7 +7108,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79">
@@ -6431,7 +7116,7 @@
         <v>427</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -6439,7 +7124,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
@@ -6447,7 +7132,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>519</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -6455,7 +7140,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83">
@@ -6463,7 +7148,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -6471,256 +7156,264 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
+        <v>579</v>
       </c>
       <c r="Y85" t="s">
-        <v>508</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y87" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y90" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y91" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y92" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y93" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -46,13 +46,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1840,6 +1841,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1857,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2429,8 +2439,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="151">
+  <fills count="178">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,8 +3393,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="147">
+  <borders count="179">
     <border>
       <left/>
       <right/>
@@ -4775,6 +5039,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4782,7 +5372,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5107,52 +5697,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="126" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="129" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="135" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="135" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="141" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="141" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="144" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="144" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="144" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="144" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="153" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="156" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="168" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="159" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="171" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="171" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5507,7 +6145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5592,21 +6230,24 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5684,21 +6325,24 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5769,22 +6413,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5852,22 +6496,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5926,22 +6570,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>353</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5994,22 +6638,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6056,22 +6700,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6112,22 +6756,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6168,13 +6812,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6209,13 +6853,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6247,13 +6891,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6285,13 +6929,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6320,13 +6964,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6355,13 +6999,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6387,13 +7031,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6419,13 +7063,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6445,13 +7089,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>525</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6468,10 +7112,10 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6488,10 +7132,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6508,10 +7152,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6528,10 +7172,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6540,7 +7184,7 @@
         <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>590</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
@@ -6548,10 +7192,10 @@
       <c r="K22" t="s">
         <v>494</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>506</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6560,7 +7204,7 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>288</v>
@@ -6568,10 +7212,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6580,7 +7224,7 @@
         <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
         <v>277</v>
@@ -6588,19 +7232,19 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>589</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -6608,19 +7252,19 @@
       <c r="K25" t="s">
         <v>573</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="G26" t="s">
         <v>280</v>
@@ -6628,19 +7272,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>264</v>
@@ -6648,19 +7292,19 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>492</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>281</v>
@@ -6668,16 +7312,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G29" t="s">
         <v>282</v>
@@ -6685,117 +7329,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>577</v>
       </c>
     </row>
@@ -6803,7 +7453,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6811,7 +7461,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6819,7 +7469,7 @@
       <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6827,7 +7477,7 @@
       <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6835,7 +7485,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6843,7 +7493,7 @@
       <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6851,7 +7501,7 @@
       <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6859,7 +7509,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6867,7 +7517,7 @@
       <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6875,7 +7525,7 @@
       <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6883,7 +7533,7 @@
       <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>582</v>
       </c>
     </row>
@@ -6891,7 +7541,7 @@
       <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6899,7 +7549,7 @@
       <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6907,7 +7557,7 @@
       <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6915,7 +7565,7 @@
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6923,7 +7573,7 @@
       <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6931,7 +7581,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6939,7 +7589,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6947,7 +7597,7 @@
       <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6955,7 +7605,7 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6963,7 +7613,7 @@
       <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6971,7 +7621,7 @@
       <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6979,7 +7629,7 @@
       <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6987,7 +7637,7 @@
       <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6995,7 +7645,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7003,7 +7653,7 @@
       <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7011,7 +7661,7 @@
       <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7019,7 +7669,7 @@
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7027,7 +7677,7 @@
       <c r="G68" t="s">
         <v>578</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7035,7 +7685,7 @@
       <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7043,7 +7693,7 @@
       <c r="G70" t="s">
         <v>408</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7051,7 +7701,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7059,7 +7709,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7067,7 +7717,7 @@
       <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7075,7 +7725,7 @@
       <c r="G74" t="s">
         <v>532</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7083,7 +7733,7 @@
       <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7091,7 +7741,7 @@
       <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7099,7 +7749,7 @@
       <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7107,7 +7757,7 @@
       <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7115,7 +7765,7 @@
       <c r="G79" t="s">
         <v>427</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7123,7 +7773,7 @@
       <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7131,7 +7781,7 @@
       <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7139,7 +7789,7 @@
       <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7147,7 +7797,7 @@
       <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7155,7 +7805,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7163,7 +7813,7 @@
       <c r="G85" t="s">
         <v>579</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7171,7 +7821,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7179,7 +7829,7 @@
       <c r="G87" t="s">
         <v>286</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7187,7 +7837,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7195,7 +7845,7 @@
       <c r="G89" t="s">
         <v>271</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7203,7 +7853,7 @@
       <c r="G90" t="s">
         <v>303</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7211,7 +7861,7 @@
       <c r="G91" t="s">
         <v>309</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7219,7 +7869,7 @@
       <c r="G92" t="s">
         <v>293</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7227,7 +7877,7 @@
       <c r="G93" t="s">
         <v>338</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7235,7 +7885,7 @@
       <c r="G94" t="s">
         <v>275</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7243,177 +7893,177 @@
       <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1850,6 +1850,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1863,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2540,8 +2546,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="178">
+  <fills count="205">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3546,8 +3653,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="179">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -5365,6 +5625,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5372,7 +5958,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5745,52 +6331,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="153" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="153" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="156" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="156" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="162" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="168" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="168" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="159" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="159" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="171" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="171" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="171" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="171" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="180" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="195" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="186" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7467,7 +8101,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
+        <v>592</v>
       </c>
       <c r="Z42" t="s">
         <v>121</v>
@@ -7475,7 +8109,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Z43" t="s">
         <v>122</v>
@@ -7483,7 +8117,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z44" t="s">
         <v>123</v>
@@ -7491,7 +8125,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Z45" t="s">
         <v>124</v>
@@ -7499,7 +8133,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -7507,7 +8141,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s">
         <v>437</v>
@@ -7515,7 +8149,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s">
         <v>211</v>
@@ -7523,7 +8157,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Z49" t="s">
         <v>77</v>
@@ -7531,7 +8165,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s">
         <v>582</v>
@@ -7539,7 +8173,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s">
         <v>126</v>
@@ -7547,7 +8181,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s">
         <v>127</v>
@@ -7555,7 +8189,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Z53" t="s">
         <v>128</v>
@@ -7563,7 +8197,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Z54" t="s">
         <v>507</v>
@@ -7571,7 +8205,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Z55" t="s">
         <v>462</v>
@@ -7579,7 +8213,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z56" t="s">
         <v>129</v>
@@ -7587,7 +8221,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z57" t="s">
         <v>344</v>
@@ -7595,7 +8229,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="Z58" t="s">
         <v>463</v>
@@ -7603,7 +8237,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Z59" t="s">
         <v>130</v>
@@ -7611,7 +8245,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="Z60" t="s">
         <v>131</v>
@@ -7619,7 +8253,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Z61" t="s">
         <v>132</v>
@@ -7627,7 +8261,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Z62" t="s">
         <v>133</v>
@@ -7635,7 +8269,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="Z63" t="s">
         <v>134</v>
@@ -7643,7 +8277,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="Z64" t="s">
         <v>135</v>
@@ -7651,7 +8285,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="Z65" t="s">
         <v>136</v>
@@ -7659,7 +8293,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="Z66" t="s">
         <v>438</v>
@@ -7667,7 +8301,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s">
         <v>497</v>
@@ -7675,7 +8309,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>578</v>
+        <v>311</v>
       </c>
       <c r="Z68" t="s">
         <v>212</v>
@@ -7683,7 +8317,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="Z69" t="s">
         <v>387</v>
@@ -7691,7 +8325,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="Z70" t="s">
         <v>439</v>
@@ -7699,7 +8333,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z71" t="s">
         <v>137</v>
@@ -7707,7 +8341,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z72" t="s">
         <v>138</v>
@@ -7715,7 +8349,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Z73" t="s">
         <v>139</v>
@@ -7723,7 +8357,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>532</v>
+        <v>409</v>
       </c>
       <c r="Z74" t="s">
         <v>140</v>
@@ -7731,7 +8365,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="Z75" t="s">
         <v>195</v>
@@ -7739,7 +8373,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
+        <v>532</v>
       </c>
       <c r="Z76" t="s">
         <v>196</v>
@@ -7747,7 +8381,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="Z77" t="s">
         <v>451</v>
@@ -7755,7 +8389,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Z78" t="s">
         <v>464</v>
@@ -7763,7 +8397,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="Z79" t="s">
         <v>141</v>
@@ -7771,7 +8405,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="Z80" t="s">
         <v>142</v>
@@ -7779,7 +8413,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="Z81" t="s">
         <v>143</v>
@@ -7787,7 +8421,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="Z82" t="s">
         <v>519</v>
@@ -7795,7 +8429,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="Z83" t="s">
         <v>144</v>
@@ -7803,7 +8437,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Z84" t="s">
         <v>145</v>
@@ -7811,7 +8445,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>579</v>
+        <v>285</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -7819,7 +8453,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z86" t="s">
         <v>508</v>
@@ -7827,7 +8461,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>286</v>
+        <v>579</v>
       </c>
       <c r="Z87" t="s">
         <v>198</v>
@@ -7835,7 +8469,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z88" t="s">
         <v>452</v>
@@ -7843,7 +8477,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Z89" t="s">
         <v>199</v>
@@ -7851,7 +8485,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="Z90" t="s">
         <v>200</v>
@@ -7859,7 +8493,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="Z91" t="s">
         <v>213</v>
@@ -7867,7 +8501,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Z92" t="s">
         <v>146</v>
@@ -7875,7 +8509,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Z93" t="s">
         <v>201</v>
@@ -7883,7 +8517,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Z94" t="s">
         <v>440</v>
@@ -7891,18 +8525,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="Z95" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
       <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
       <c r="Z97" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1856,6 +1856,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1866,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2647,8 +2650,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="205">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3806,8 +3910,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="211">
+  <borders count="243">
     <border>
       <left/>
       <right/>
@@ -5951,6 +6208,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5958,7 +6541,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6379,52 +6962,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="180" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="180" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="195" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="195" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="186" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="186" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="213" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6779,7 +7410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6864,24 +7495,21 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>589</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="AD1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6959,24 +7587,21 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
-        <v>591</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="AD2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7047,22 +7672,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7130,22 +7755,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
+      <c r="Y4" t="s">
+        <v>352</v>
+      </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7204,22 +7829,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7272,22 +7897,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="AA6" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7334,22 +7959,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AA7" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7390,22 +8015,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7446,13 +8071,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -7487,13 +8112,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7525,13 +8150,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7563,13 +8188,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7598,13 +8223,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7633,13 +8258,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7665,13 +8290,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7689,7 +8314,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>594</v>
       </c>
       <c r="Q16" t="s">
         <v>524</v>
@@ -7697,13 +8322,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7721,15 +8346,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>525</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>465</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7746,10 +8371,13 @@
       <c r="K18" t="s">
         <v>461</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7766,10 +8394,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7786,10 +8414,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7806,10 +8434,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7826,10 +8454,10 @@
       <c r="K22" t="s">
         <v>494</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>506</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7846,10 +8474,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7866,16 +8494,16 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -7886,16 +8514,16 @@
       <c r="K25" t="s">
         <v>573</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>447</v>
@@ -7906,16 +8534,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -7926,16 +8554,16 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -7946,13 +8574,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>492</v>
@@ -7963,13 +8591,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>493</v>
@@ -7977,21 +8605,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8002,7 +8627,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8013,7 +8638,7 @@
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8024,7 +8649,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8035,7 +8660,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8046,7 +8671,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8057,7 +8682,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8068,7 +8693,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8079,7 +8704,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8087,7 +8712,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8095,7 +8720,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8103,7 +8728,7 @@
       <c r="G42" t="s">
         <v>592</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8111,7 +8736,7 @@
       <c r="G43" t="s">
         <v>287</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8119,7 +8744,7 @@
       <c r="G44" t="s">
         <v>298</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8127,7 +8752,7 @@
       <c r="G45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8135,7 +8760,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8143,7 +8768,7 @@
       <c r="G47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8151,7 +8776,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8159,7 +8784,7 @@
       <c r="G49" t="s">
         <v>318</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8167,7 +8792,7 @@
       <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>582</v>
       </c>
     </row>
@@ -8175,7 +8800,7 @@
       <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8183,7 +8808,7 @@
       <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8191,7 +8816,7 @@
       <c r="G53" t="s">
         <v>354</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8199,7 +8824,7 @@
       <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>507</v>
       </c>
     </row>
@@ -8207,7 +8832,7 @@
       <c r="G55" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8215,7 +8840,7 @@
       <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8223,7 +8848,7 @@
       <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8231,7 +8856,7 @@
       <c r="G58" t="s">
         <v>593</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8239,7 +8864,7 @@
       <c r="G59" t="s">
         <v>292</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8247,7 +8872,7 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8255,7 +8880,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8263,7 +8888,7 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8271,7 +8896,7 @@
       <c r="G63" t="s">
         <v>307</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8279,7 +8904,7 @@
       <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8287,7 +8912,7 @@
       <c r="G65" t="s">
         <v>367</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8295,7 +8920,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8303,7 +8928,7 @@
       <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8311,7 +8936,7 @@
       <c r="G68" t="s">
         <v>311</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8319,7 +8944,7 @@
       <c r="G69" t="s">
         <v>267</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8327,7 +8952,7 @@
       <c r="G70" t="s">
         <v>578</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8335,7 +8960,7 @@
       <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8343,7 +8968,7 @@
       <c r="G72" t="s">
         <v>408</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8351,7 +8976,7 @@
       <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8359,7 +8984,7 @@
       <c r="G74" t="s">
         <v>409</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8367,7 +8992,7 @@
       <c r="G75" t="s">
         <v>260</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8375,7 +9000,7 @@
       <c r="G76" t="s">
         <v>532</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8383,7 +9008,7 @@
       <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8391,7 +9016,7 @@
       <c r="G78" t="s">
         <v>278</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8399,7 +9024,7 @@
       <c r="G79" t="s">
         <v>284</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8407,7 +9032,7 @@
       <c r="G80" t="s">
         <v>289</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8415,7 +9040,7 @@
       <c r="G81" t="s">
         <v>427</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8423,7 +9048,7 @@
       <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8431,7 +9056,7 @@
       <c r="G83" t="s">
         <v>268</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8439,7 +9064,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8447,7 +9072,7 @@
       <c r="G85" t="s">
         <v>285</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8455,7 +9080,7 @@
       <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8463,7 +9088,7 @@
       <c r="G87" t="s">
         <v>579</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8471,7 +9096,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8479,7 +9104,7 @@
       <c r="G89" t="s">
         <v>286</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8487,7 +9112,7 @@
       <c r="G90" t="s">
         <v>270</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8495,7 +9120,7 @@
       <c r="G91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8503,7 +9128,7 @@
       <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8511,7 +9136,7 @@
       <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8519,7 +9144,7 @@
       <c r="G94" t="s">
         <v>293</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8527,7 +9152,7 @@
       <c r="G95" t="s">
         <v>338</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8535,7 +9160,7 @@
       <c r="G96" t="s">
         <v>275</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8543,167 +9168,167 @@
       <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1859,6 +1859,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1878,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2751,8 +2763,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="232">
+  <fills count="367">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4063,8 +4580,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="243">
+  <borders count="403">
     <border>
       <left/>
       <right/>
@@ -6534,6 +7816,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6541,7 +9453,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7010,52 +9922,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="213" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="213" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="234" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="237" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="240" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="243" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="249" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="240" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="252" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="261" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="264" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="267" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="267" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="279" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="288" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="291" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="294" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="297" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="303" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="294" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="306" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="306" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="315" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="318" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="321" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="324" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="330" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="321" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="333" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="333" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="342" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="345" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="348" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="351" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="357" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="348" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="360" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="360" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7410,7 +10562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8495,7 +11647,7 @@
         <v>390</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="AD24" t="s">
         <v>587</v>
@@ -8515,7 +11667,7 @@
         <v>573</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>588</v>
@@ -8535,7 +11687,7 @@
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -8555,7 +11707,7 @@
         <v>432</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -8575,7 +11727,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -8592,7 +11744,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -8606,7 +11758,7 @@
         <v>214</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -8617,7 +11769,7 @@
         <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -8628,7 +11780,7 @@
         <v>283</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -8639,7 +11791,7 @@
         <v>531</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -8650,7 +11802,7 @@
         <v>258</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35">
@@ -8661,7 +11813,7 @@
         <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -8672,7 +11824,7 @@
         <v>305</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -8683,7 +11835,7 @@
         <v>259</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -8694,7 +11846,7 @@
         <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -8705,7 +11857,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>577</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -8713,7 +11865,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41">
@@ -8721,7 +11873,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42">
@@ -8729,7 +11881,7 @@
         <v>592</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
@@ -8737,7 +11889,7 @@
         <v>287</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -8745,7 +11897,7 @@
         <v>298</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -8753,7 +11905,7 @@
         <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -8761,7 +11913,7 @@
         <v>341</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -8769,7 +11921,7 @@
         <v>340</v>
       </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -8777,7 +11929,7 @@
         <v>209</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -8785,7 +11937,7 @@
         <v>318</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
@@ -8793,7 +11945,7 @@
         <v>337</v>
       </c>
       <c r="Y50" t="s">
-        <v>582</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
@@ -8801,7 +11953,7 @@
         <v>366</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -8809,7 +11961,7 @@
         <v>300</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53">
@@ -8817,7 +11969,7 @@
         <v>354</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -8825,7 +11977,7 @@
         <v>329</v>
       </c>
       <c r="Y54" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -8833,7 +11985,7 @@
         <v>266</v>
       </c>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -8841,7 +11993,7 @@
         <v>290</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57">
@@ -8849,7 +12001,7 @@
         <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58">
@@ -8857,7 +12009,7 @@
         <v>593</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -8865,7 +12017,7 @@
         <v>292</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
@@ -8873,7 +12025,7 @@
         <v>301</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
@@ -8881,7 +12033,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -8889,7 +12041,7 @@
         <v>335</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -8897,7 +12049,7 @@
         <v>307</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -8905,7 +12057,7 @@
         <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -8913,7 +12065,7 @@
         <v>367</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -8921,7 +12073,7 @@
         <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -8929,7 +12081,7 @@
         <v>343</v>
       </c>
       <c r="Y67" t="s">
-        <v>497</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
@@ -8937,7 +12089,7 @@
         <v>311</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
@@ -8945,7 +12097,7 @@
         <v>267</v>
       </c>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70">
@@ -8953,7 +12105,7 @@
         <v>578</v>
       </c>
       <c r="Y70" t="s">
-        <v>439</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
@@ -8961,7 +12113,7 @@
         <v>312</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
@@ -8969,7 +12121,7 @@
         <v>408</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73">
@@ -8977,7 +12129,7 @@
         <v>302</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -8985,7 +12137,7 @@
         <v>409</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -8993,7 +12145,7 @@
         <v>260</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -9001,7 +12153,7 @@
         <v>532</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -9009,7 +12161,7 @@
         <v>342</v>
       </c>
       <c r="Y77" t="s">
-        <v>451</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -9017,7 +12169,7 @@
         <v>278</v>
       </c>
       <c r="Y78" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -9025,7 +12177,7 @@
         <v>284</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80">
@@ -9033,7 +12185,7 @@
         <v>289</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81">
@@ -9041,7 +12193,7 @@
         <v>427</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -9049,7 +12201,7 @@
         <v>330</v>
       </c>
       <c r="Y82" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
@@ -9057,7 +12209,7 @@
         <v>268</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
@@ -9065,7 +12217,7 @@
         <v>279</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85">
@@ -9073,7 +12225,7 @@
         <v>285</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -9081,7 +12233,7 @@
         <v>274</v>
       </c>
       <c r="Y86" t="s">
-        <v>508</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
@@ -9089,7 +12241,7 @@
         <v>579</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -9097,7 +12249,7 @@
         <v>269</v>
       </c>
       <c r="Y88" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89">
@@ -9105,7 +12257,7 @@
         <v>286</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -9113,7 +12265,7 @@
         <v>270</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
@@ -9121,7 +12273,7 @@
         <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -9129,7 +12281,7 @@
         <v>303</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -9137,7 +12289,7 @@
         <v>309</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94">
@@ -9145,7 +12297,7 @@
         <v>293</v>
       </c>
       <c r="Y94" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -9153,7 +12305,7 @@
         <v>338</v>
       </c>
       <c r="Y95" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
@@ -9161,7 +12313,7 @@
         <v>275</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -9169,166 +12321,186 @@
         <v>276</v>
       </c>
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>530</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>533</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>442</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1871,6 +1871,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1884,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3268,8 +3274,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="367">
+  <fills count="394">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5345,8 +5452,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="403">
+  <borders count="435">
     <border>
       <left/>
       <right/>
@@ -9446,6 +9706,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9453,7 +10039,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10162,52 +10748,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="342" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="342" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="345" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="345" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="348" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="348" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="351" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="351" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="357" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="357" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="348" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="348" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="360" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="360" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="360" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="360" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="369" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="372" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="375" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="378" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="384" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="375" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="387" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="387" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10943,7 +11577,7 @@
         <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>599</v>
       </c>
       <c r="H5" t="s">
         <v>458</v>
@@ -11017,7 +11651,7 @@
         <v>526</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>446</v>
@@ -11079,7 +11713,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>445</v>
@@ -11141,7 +11775,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -11197,7 +11831,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -11241,7 +11875,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>450</v>
@@ -11282,7 +11916,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -11320,7 +11954,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -11358,7 +11992,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -11393,7 +12027,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -11428,7 +12062,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>529</v>
@@ -11460,7 +12094,7 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -11492,7 +12126,7 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -11518,7 +12152,7 @@
         <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>461</v>
@@ -11541,7 +12175,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -11561,7 +12195,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -11581,7 +12215,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -11601,7 +12235,7 @@
         <v>590</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>494</v>
@@ -11621,7 +12255,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -11641,7 +12275,7 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>390</v>
@@ -11661,7 +12295,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>573</v>
@@ -11681,7 +12315,7 @@
         <v>447</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -11701,7 +12335,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>432</v>
@@ -11721,7 +12355,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -11738,7 +12372,7 @@
         <v>492</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -11755,7 +12389,7 @@
         <v>493</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -11766,7 +12400,7 @@
         <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -11777,7 +12411,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -11788,7 +12422,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>531</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -11799,7 +12433,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="Y34" t="s">
         <v>596</v>
@@ -11810,7 +12444,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -11821,7 +12455,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -11832,7 +12466,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -11843,7 +12477,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -11854,7 +12488,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
         <v>336</v>
@@ -11862,7 +12496,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
         <v>436</v>
@@ -11870,7 +12504,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>577</v>
@@ -11878,7 +12512,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>391</v>
@@ -11886,7 +12520,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>592</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -11894,7 +12528,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -11902,7 +12536,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -11910,7 +12544,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -11918,7 +12552,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -11926,7 +12560,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -11934,7 +12568,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>437</v>
@@ -11942,7 +12576,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -11950,7 +12584,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -11958,7 +12592,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
         <v>582</v>
@@ -11966,7 +12600,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -11974,7 +12608,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -11982,7 +12616,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -11990,7 +12624,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
         <v>507</v>
@@ -11998,7 +12632,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
         <v>462</v>
@@ -12006,7 +12640,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>593</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -12014,7 +12648,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="Y59" t="s">
         <v>344</v>
@@ -12022,7 +12656,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
         <v>463</v>
@@ -12030,7 +12664,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -12038,7 +12672,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -12046,7 +12680,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -12054,7 +12688,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -12062,7 +12696,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -12070,7 +12704,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -12078,7 +12712,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -12086,7 +12720,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
         <v>438</v>
@@ -12094,7 +12728,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
         <v>497</v>
@@ -12102,7 +12736,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>578</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -12110,7 +12744,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>578</v>
       </c>
       <c r="Y71" t="s">
         <v>387</v>
@@ -12118,7 +12752,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
         <v>439</v>
@@ -12126,7 +12760,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="Y73" t="s">
         <v>137</v>
@@ -12134,7 +12768,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
         <v>138</v>
@@ -12142,7 +12776,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="Y75" t="s">
         <v>139</v>
@@ -12150,7 +12784,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>532</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
         <v>140</v>
@@ -12158,7 +12792,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>532</v>
       </c>
       <c r="Y77" t="s">
         <v>195</v>
@@ -12166,7 +12800,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
         <v>196</v>
@@ -12174,7 +12808,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
         <v>451</v>
@@ -12182,7 +12816,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
         <v>464</v>
@@ -12190,7 +12824,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
         <v>141</v>
@@ -12198,7 +12832,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="Y82" t="s">
         <v>142</v>
@@ -12206,7 +12840,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
         <v>143</v>
@@ -12214,7 +12848,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
         <v>519</v>
@@ -12222,7 +12856,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
         <v>144</v>
@@ -12230,7 +12864,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
         <v>145</v>
@@ -12238,7 +12872,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>579</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
         <v>197</v>
@@ -12246,7 +12880,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>579</v>
       </c>
       <c r="Y88" t="s">
         <v>508</v>
@@ -12254,7 +12888,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
         <v>198</v>
@@ -12262,7 +12896,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
         <v>452</v>
@@ -12270,7 +12904,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
         <v>199</v>
@@ -12278,7 +12912,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
         <v>200</v>
@@ -12286,15 +12920,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
         <v>213</v>
@@ -12302,7 +12936,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
         <v>146</v>
@@ -12310,7 +12944,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
         <v>201</v>
@@ -12318,13 +12952,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y97" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
       <c r="Y98" t="s">
         <v>441</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8902" uniqueCount="602">
   <si>
     <t>description</t>
   </si>
@@ -1877,6 +1877,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3375,8 +3378,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="394">
+  <fills count="421">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5605,8 +5709,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="435">
+  <borders count="467">
     <border>
       <left/>
       <right/>
@@ -10032,6 +10289,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10039,7 +10622,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10796,52 +11379,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="369" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="369" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="372" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="372" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="375" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="375" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="378" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="378" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="384" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="384" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="375" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="375" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="387" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="387" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="387" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="387" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="396" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="399" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="402" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="405" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="411" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="402" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="414" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="414" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11196,7 +11827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12931,7 +13562,7 @@
         <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>213</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95">
@@ -12939,7 +13570,7 @@
         <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -12947,7 +13578,7 @@
         <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -12955,7 +13586,7 @@
         <v>275</v>
       </c>
       <c r="Y97" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -12963,181 +13594,186 @@
         <v>276</v>
       </c>
       <c r="Y98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>597</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -21,39 +21,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8902" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9463" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1880,6 +1881,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3479,8 +3498,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="421">
+  <fills count="448">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5862,8 +5982,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="467">
+  <borders count="499">
     <border>
       <left/>
       <right/>
@@ -10615,6 +10888,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10622,7 +11221,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11427,52 +12026,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="396" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="396" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="399" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="399" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="402" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="402" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="405" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="405" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="411" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="411" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="402" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="402" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="414" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="414" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="414" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="414" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="423" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="426" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="429" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="432" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="438" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="429" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="441" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="441" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11827,7 +12474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11852,81 +12499,84 @@
         <v>509</v>
       </c>
       <c r="E1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>535</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>500</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>410</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>395</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11944,81 +12594,84 @@
         <v>510</v>
       </c>
       <c r="E2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>448</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>459</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>382</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>536</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>503</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>405</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -12035,76 +12688,76 @@
       <c r="D3" t="s">
         <v>572</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>456</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>501</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>537</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>504</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>419</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12118,82 +12771,82 @@
       <c r="D4" t="s">
         <v>511</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>449</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>502</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>538</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>505</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>420</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -12201,73 +12854,73 @@
       <c r="D5" t="s">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>457</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>431</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>599</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>576</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>460</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>574</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>399</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>421</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
-        <v>353</v>
-      </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -12275,1505 +12928,1513 @@
       <c r="D6" t="s">
         <v>513</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>526</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>446</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>568</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>389</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>400</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>445</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>580</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>569</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>416</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>401</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>527</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>570</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>402</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>365</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>575</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>403</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>450</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>539</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>435</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>604</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>528</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>495</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>540</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>388</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>581</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>541</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>535</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>496</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>500</v>
-      </c>
-      <c r="E15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>529</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>523</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" t="s">
         <v>383</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>594</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>524</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>525</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>465</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>413</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>461</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>590</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>494</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>506</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>595</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>573</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>447</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>492</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>493</v>
-      </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>414</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>531</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>577</v>
+      <c r="Z41" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>592</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>593</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>578</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>579</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9463" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1906,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3599,8 +3599,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="448">
+  <fills count="475">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6135,8 +6236,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="499">
+  <borders count="531">
     <border>
       <left/>
       <right/>
@@ -11214,6 +11468,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11221,7 +11801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="310">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12074,52 +12654,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="423" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="423" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="426" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="426" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="429" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="429" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="432" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="432" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="438" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="438" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="429" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="429" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="441" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="441" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="441" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="441" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="450" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="453" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="456" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="459" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="465" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="456" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="468" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="468" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11148" uniqueCount="610">
   <si>
     <t>description</t>
   </si>
@@ -1899,6 +1899,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1912,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3700,8 +3706,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="475">
+  <fills count="529">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6389,8 +6597,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="531">
+  <borders count="595">
     <border>
       <left/>
       <right/>
@@ -11794,6 +12308,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11801,7 +12967,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12702,52 +13868,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="450" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="450" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="453" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="453" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="456" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="456" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="459" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="459" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="465" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="465" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="456" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="456" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="468" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="468" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="468" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="468" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="477" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="480" fontId="285" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="483" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="486" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="492" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="483" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="495" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="495" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="504" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="507" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="510" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="513" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="519" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="510" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="522" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="522" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14061,7 +15323,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>608</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -14084,7 +15346,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>413</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -14104,7 +15366,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -14124,13 +15386,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>378</v>
+        <v>609</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -14144,7 +15406,7 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>590</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -14164,7 +15426,7 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>590</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -14184,7 +15446,7 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -14204,7 +15466,7 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -14224,7 +15486,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -14244,7 +15506,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -14264,7 +15526,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -14281,7 +15543,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>492</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -14298,7 +15560,7 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -14312,7 +15574,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -14323,7 +15585,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -14334,7 +15596,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -14345,7 +15607,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
@@ -14356,7 +15618,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -14367,7 +15629,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -14378,7 +15640,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -14389,7 +15651,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -14400,7 +15662,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -14410,6 +15672,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -21,15 +21,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11148" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11713" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1905,6 +1905,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1927,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3908,8 +3923,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="529">
+  <fills count="556">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6903,8 +7019,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="595">
+  <borders count="627">
     <border>
       <left/>
       <right/>
@@ -12960,6 +13229,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12967,7 +13562,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13964,52 +14559,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="504" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="504" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="507" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="507" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="510" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="510" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="513" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="513" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="519" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="519" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="510" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="510" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="522" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="522" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="522" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="522" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="525" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="531" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="534" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="537" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="540" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="546" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="537" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="549" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="549" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14364,7 +15007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14680,7 +15323,7 @@
         <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>611</v>
       </c>
       <c r="M4" t="s">
         <v>333</v>
@@ -14716,7 +15359,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>612</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -14763,7 +15406,7 @@
         <v>349</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -14830,11 +15473,14 @@
       <c r="I6" t="s">
         <v>446</v>
       </c>
+      <c r="J6" t="s">
+        <v>610</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -14896,7 +15542,7 @@
         <v>580</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>313</v>
@@ -14955,7 +15601,7 @@
         <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>527</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -15011,7 +15657,7 @@
         <v>327</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -15055,7 +15701,7 @@
         <v>450</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -15096,7 +15742,7 @@
         <v>320</v>
       </c>
       <c r="L11" t="s">
-        <v>528</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>495</v>
@@ -15134,7 +15780,7 @@
         <v>321</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>528</v>
       </c>
       <c r="N12" t="s">
         <v>581</v>
@@ -15172,7 +15818,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="N13" t="s">
         <v>434</v>
@@ -15207,7 +15853,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>496</v>
@@ -15239,7 +15885,7 @@
         <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -15271,7 +15917,7 @@
         <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="N16" t="s">
         <v>594</v>
@@ -15303,7 +15949,7 @@
         <v>315</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -15323,13 +15969,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -15346,13 +15992,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>413</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -15366,13 +16012,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -15386,13 +16032,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>609</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -15406,13 +16052,13 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>590</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>494</v>
+        <v>609</v>
       </c>
       <c r="Z22" t="s">
         <v>506</v>
@@ -15426,13 +16072,13 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>590</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>494</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -15446,13 +16092,13 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>595</v>
@@ -15466,13 +16112,13 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>573</v>
+        <v>390</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -15486,13 +16132,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>573</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -15506,13 +16152,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -15526,13 +16172,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -15543,13 +16189,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>492</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>325</v>
@@ -15560,10 +16206,13 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -15574,7 +16223,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -15585,7 +16234,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -15596,7 +16245,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -15607,7 +16256,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
@@ -15618,7 +16267,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -15629,7 +16278,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -15640,7 +16289,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -15651,7 +16300,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -15662,7 +16311,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -15672,9 +16321,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -16148,186 +16794,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>441</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>530</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>607</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>597</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11713" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12278" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1927,7 +1927,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="347" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4024,8 +4024,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="556">
+  <fills count="583">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7172,8 +7273,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="627">
+  <borders count="659">
     <border>
       <left/>
       <right/>
@@ -13555,6 +13809,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13562,7 +14142,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="374">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14607,52 +15187,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="531" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="531" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="534" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="534" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="537" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="537" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="540" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="540" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="546" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="546" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="537" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="537" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="549" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="549" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="549" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="549" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="558" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="561" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="564" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="567" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="573" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="564" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="576" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="576" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12278" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="616">
   <si>
     <t>description</t>
   </si>
@@ -1920,6 +1920,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="347" x14ac:knownFonts="1">
+  <fonts count="379" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4125,8 +4128,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="583">
+  <fills count="637">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7426,8 +7631,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="659">
+  <borders count="723">
     <border>
       <left/>
       <right/>
@@ -14135,6 +14646,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14142,7 +15305,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15235,52 +16398,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="558" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="558" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="561" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="561" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="564" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="564" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="567" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="567" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="573" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="573" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="564" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="564" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="576" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="576" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="576" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="576" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="585" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="588" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="591" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="594" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="600" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="591" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="603" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="603" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="612" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="615" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="618" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="621" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="627" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="618" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="630" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="630" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15635,7 +16894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17345,7 +18604,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90">
@@ -17353,7 +18612,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -17361,7 +18620,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92">
@@ -17369,7 +18628,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -17377,7 +18636,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -17385,7 +18644,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95">
@@ -17393,7 +18652,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96">
@@ -17401,7 +18660,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -17409,7 +18668,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -17417,201 +18676,206 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>613</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>441</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>597</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13410" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13976" uniqueCount="616">
   <si>
     <t>description</t>
   </si>
@@ -1930,7 +1930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="379" x14ac:knownFonts="1">
+  <fonts count="395" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4330,8 +4330,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="637">
+  <fills count="664">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7937,8 +8038,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="723">
+  <borders count="755">
     <border>
       <left/>
       <right/>
@@ -15298,6 +15552,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15305,7 +15885,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16494,52 +17074,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="612" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="612" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="615" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="615" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="618" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="618" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="621" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="621" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="627" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="627" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="618" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="618" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="630" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="630" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="630" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="630" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="639" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="642" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="645" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="648" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="654" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="645" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="657" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="657" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,9 +47,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13976" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14552" uniqueCount="626">
   <si>
     <t>description</t>
   </si>
@@ -1923,6 +1923,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1960,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="395" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4431,8 +4461,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="664">
+  <fills count="691">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8191,8 +8322,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="755">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -15878,6 +16162,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15885,7 +16495,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17122,52 +17732,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="639" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="639" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="642" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="642" fontId="381" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="645" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="645" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="648" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="648" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="654" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="654" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="645" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="645" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="657" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="657" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="657" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="657" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="666" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="669" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="672" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="675" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="681" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="672" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="684" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="684" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17522,7 +18180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17954,7 +18612,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>624</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -18025,7 +18683,7 @@
         <v>443</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -18087,7 +18745,7 @@
         <v>444</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -18143,7 +18801,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -18195,6 +18853,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -18213,7 +18874,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>450</v>
+        <v>616</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -18235,6 +18896,9 @@
       </c>
       <c r="Z10" t="s">
         <v>255</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>625</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -18254,7 +18918,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -18292,7 +18956,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
         <v>528</v>
@@ -18330,7 +18994,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>388</v>
@@ -18342,7 +19006,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>617</v>
       </c>
       <c r="Z13" t="s">
         <v>324</v>
@@ -18365,7 +19029,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -18377,7 +19041,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -18399,6 +19063,9 @@
       <c r="H15" t="s">
         <v>262</v>
       </c>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -18409,10 +19076,10 @@
         <v>523</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -18441,10 +19108,10 @@
         <v>524</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -18469,8 +19136,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>250</v>
+      </c>
       <c r="Z17" t="s">
-        <v>525</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>465</v>
@@ -18496,7 +19166,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>525</v>
       </c>
       <c r="AE18" t="s">
         <v>499</v>
@@ -18516,7 +19186,7 @@
         <v>461</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>517</v>
@@ -18536,7 +19206,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>518</v>
@@ -18556,7 +19226,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>522</v>
@@ -18576,7 +19246,7 @@
         <v>609</v>
       </c>
       <c r="Z22" t="s">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -18596,7 +19266,7 @@
         <v>494</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>506</v>
       </c>
       <c r="AE23" t="s">
         <v>586</v>
@@ -18616,7 +19286,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>587</v>
@@ -18636,7 +19306,7 @@
         <v>390</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="AE25" t="s">
         <v>588</v>
@@ -18656,7 +19326,7 @@
         <v>573</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
@@ -18676,7 +19346,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
@@ -18696,7 +19366,7 @@
         <v>432</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -18713,7 +19383,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -18730,7 +19400,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -18744,7 +19414,7 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -18755,7 +19425,7 @@
         <v>273</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -18766,7 +19436,7 @@
         <v>283</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -18777,7 +19447,7 @@
         <v>531</v>
       </c>
       <c r="Z34" t="s">
-        <v>596</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -18788,7 +19458,7 @@
         <v>258</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36">
@@ -18799,7 +19469,7 @@
         <v>328</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -18810,7 +19480,7 @@
         <v>305</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -18821,7 +19491,7 @@
         <v>259</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -18832,7 +19502,7 @@
         <v>306</v>
       </c>
       <c r="Z39" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -18840,7 +19510,7 @@
         <v>265</v>
       </c>
       <c r="Z40" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -18848,7 +19518,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>606</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42">
@@ -18856,7 +19526,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>391</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43">
@@ -18864,7 +19534,7 @@
         <v>592</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
@@ -18872,7 +19542,7 @@
         <v>287</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -18880,7 +19550,7 @@
         <v>298</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -18888,7 +19558,7 @@
         <v>299</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -18896,7 +19566,7 @@
         <v>341</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -18904,7 +19574,7 @@
         <v>340</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -18912,7 +19582,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -18920,7 +19590,7 @@
         <v>318</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51">
@@ -18928,7 +19598,7 @@
         <v>337</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -18936,7 +19606,7 @@
         <v>366</v>
       </c>
       <c r="Z52" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -18944,7 +19614,7 @@
         <v>300</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54">
@@ -18952,7 +19622,7 @@
         <v>354</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -18960,7 +19630,7 @@
         <v>329</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -18968,7 +19638,7 @@
         <v>266</v>
       </c>
       <c r="Z56" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -18976,7 +19646,7 @@
         <v>290</v>
       </c>
       <c r="Z57" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58">
@@ -18984,7 +19654,7 @@
         <v>291</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
@@ -18992,7 +19662,7 @@
         <v>593</v>
       </c>
       <c r="Z59" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -19000,7 +19670,7 @@
         <v>292</v>
       </c>
       <c r="Z60" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
@@ -19008,7 +19678,7 @@
         <v>301</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
@@ -19016,7 +19686,7 @@
         <v>310</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -19024,7 +19694,7 @@
         <v>335</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -19032,7 +19702,7 @@
         <v>307</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -19040,7 +19710,7 @@
         <v>308</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -19048,7 +19718,7 @@
         <v>367</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -19056,7 +19726,7 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -19064,7 +19734,7 @@
         <v>343</v>
       </c>
       <c r="Z68" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -19072,7 +19742,7 @@
         <v>311</v>
       </c>
       <c r="Z69" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70">
@@ -19080,7 +19750,7 @@
         <v>267</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71">
@@ -19088,7 +19758,7 @@
         <v>578</v>
       </c>
       <c r="Z71" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -19096,7 +19766,7 @@
         <v>312</v>
       </c>
       <c r="Z72" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73">
@@ -19104,7 +19774,7 @@
         <v>408</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
@@ -19112,7 +19782,7 @@
         <v>302</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -19120,7 +19790,7 @@
         <v>409</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -19128,7 +19798,7 @@
         <v>260</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -19136,7 +19806,7 @@
         <v>532</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -19144,7 +19814,7 @@
         <v>342</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -19152,7 +19822,7 @@
         <v>278</v>
       </c>
       <c r="Z79" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -19160,7 +19830,7 @@
         <v>284</v>
       </c>
       <c r="Z80" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81">
@@ -19168,7 +19838,7 @@
         <v>289</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82">
@@ -19176,7 +19846,7 @@
         <v>427</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -19184,7 +19854,7 @@
         <v>330</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -19192,7 +19862,7 @@
         <v>268</v>
       </c>
       <c r="Z84" t="s">
-        <v>519</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -19200,7 +19870,7 @@
         <v>279</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86">
@@ -19208,7 +19878,7 @@
         <v>285</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -19216,7 +19886,7 @@
         <v>274</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -19224,7 +19894,7 @@
         <v>579</v>
       </c>
       <c r="Z88" t="s">
-        <v>508</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -19232,7 +19902,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>615</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90">
@@ -19240,7 +19910,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>198</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91">
@@ -19248,7 +19918,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -19256,7 +19926,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93">
@@ -19264,7 +19934,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -19272,7 +19942,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -19280,7 +19950,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96">
@@ -19288,7 +19958,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>213</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97">
@@ -19296,7 +19966,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -19304,206 +19974,236 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>613</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>441</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>607</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>597</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14552" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15129" uniqueCount="628">
   <si>
     <t>description</t>
   </si>
@@ -1953,6 +1953,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1966,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="427" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4562,8 +4568,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="691">
+  <fills count="718">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8475,8 +8582,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="819">
     <border>
       <left/>
       <right/>
@@ -16488,6 +16748,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16495,7 +17081,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="454">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17780,52 +18366,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="666" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="666" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="669" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="669" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="672" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="672" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="675" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="675" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="681" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="681" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="672" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="672" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="684" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="684" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="684" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="684" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="693" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="696" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="699" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="702" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="708" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="699" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="711" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="711" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18874,7 +19508,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -18918,7 +19552,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>450</v>
+        <v>627</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -18956,7 +19590,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="L12" t="s">
         <v>528</v>
@@ -18994,7 +19628,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>388</v>
@@ -19029,7 +19663,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -19064,7 +19698,7 @@
         <v>262</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -19097,6 +19731,9 @@
       </c>
       <c r="H16" t="s">
         <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>323</v>
       </c>
       <c r="L16" t="s">
         <v>529</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -46,15 +46,16 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15129" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16299" uniqueCount="637">
   <si>
     <t>description</t>
   </si>
@@ -1959,6 +1960,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1994,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="427" x14ac:knownFonts="1">
+  <fonts count="459" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4669,8 +4697,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="718">
+  <fills count="772">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8735,8 +8965,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="819">
+  <borders count="883">
     <border>
       <left/>
       <right/>
@@ -17074,6 +17610,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17081,7 +18269,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="486">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18414,52 +19602,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="693" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="693" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="696" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="696" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="699" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="699" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="702" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="702" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="708" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="708" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="699" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="699" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="711" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="711" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="711" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="711" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="720" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="723" fontId="429" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="726" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="729" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="433" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="735" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="726" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="738" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="738" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="747" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="750" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="753" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="756" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="762" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="753" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="765" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="765" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18814,7 +20098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18902,21 +20186,24 @@
         <v>395</v>
       </c>
       <c r="Z1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>412</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -18952,7 +20239,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>459</v>
+        <v>635</v>
       </c>
       <c r="L2" t="s">
         <v>313</v>
@@ -18997,21 +20284,24 @@
         <v>405</v>
       </c>
       <c r="Z2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>430</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -19083,21 +20373,24 @@
         <v>406</v>
       </c>
       <c r="Z3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>362</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -19166,21 +20459,24 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA4" t="s">
         <v>612</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>422</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19240,21 +20536,24 @@
         <v>357</v>
       </c>
       <c r="Z5" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA5" t="s">
         <v>605</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>624</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>423</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19284,7 +20583,7 @@
         <v>610</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>636</v>
       </c>
       <c r="L6" t="s">
         <v>460</v>
@@ -19311,21 +20610,24 @@
         <v>359</v>
       </c>
       <c r="Z6" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>443</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>424</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19346,7 +20648,7 @@
         <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>580</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -19372,22 +20674,22 @@
       <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>444</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>425</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -19407,6 +20709,9 @@
       <c r="I8" t="s">
         <v>326</v>
       </c>
+      <c r="K8" t="s">
+        <v>580</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -19428,22 +20733,22 @@
       <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>426</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -19484,16 +20789,16 @@
       <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>585</v>
       </c>
     </row>
@@ -19528,16 +20833,16 @@
       <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>625</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -19569,13 +20874,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -19607,13 +20912,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -19642,13 +20947,13 @@
       <c r="S13" t="s">
         <v>617</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>498</v>
       </c>
     </row>
@@ -19677,13 +20982,13 @@
       <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -19712,13 +21017,13 @@
       <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>618</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -19747,13 +21052,13 @@
       <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -19776,13 +21081,13 @@
       <c r="S17" t="s">
         <v>250</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>465</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -19802,10 +21107,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>525</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>499</v>
       </c>
     </row>
@@ -19822,10 +21127,10 @@
       <c r="L19" t="s">
         <v>461</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -19842,10 +21147,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -19862,10 +21167,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -19882,10 +21187,10 @@
       <c r="L22" t="s">
         <v>609</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19902,10 +21207,10 @@
       <c r="L23" t="s">
         <v>494</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>506</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>586</v>
       </c>
     </row>
@@ -19922,10 +21227,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>587</v>
       </c>
     </row>
@@ -19942,16 +21247,16 @@
       <c r="L25" t="s">
         <v>390</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>595</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>628</v>
       </c>
       <c r="F26" t="s">
         <v>447</v>
@@ -19962,16 +21267,16 @@
       <c r="L26" t="s">
         <v>573</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -19982,16 +21287,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -20002,13 +21307,13 @@
       <c r="L28" t="s">
         <v>432</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>492</v>
@@ -20019,13 +21324,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>493</v>
@@ -20036,13 +21341,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="F31" t="s">
         <v>414</v>
@@ -20050,18 +21355,21 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -20072,7 +21380,7 @@
       <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -20083,7 +21391,7 @@
       <c r="H34" t="s">
         <v>531</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -20094,7 +21402,7 @@
       <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>596</v>
       </c>
     </row>
@@ -20105,7 +21413,7 @@
       <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -20116,7 +21424,7 @@
       <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -20127,7 +21435,7 @@
       <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -20138,7 +21446,7 @@
       <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -20146,7 +21454,7 @@
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>336</v>
       </c>
     </row>
@@ -20154,7 +21462,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>436</v>
       </c>
     </row>
@@ -20162,7 +21470,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>606</v>
       </c>
     </row>
@@ -20170,7 +21478,7 @@
       <c r="H43" t="s">
         <v>592</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>391</v>
       </c>
     </row>
@@ -20178,7 +21486,7 @@
       <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20186,7 +21494,7 @@
       <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -20194,7 +21502,7 @@
       <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -20202,7 +21510,7 @@
       <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -20210,7 +21518,7 @@
       <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -20218,7 +21526,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -20226,7 +21534,7 @@
       <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>437</v>
       </c>
     </row>
@@ -20234,7 +21542,7 @@
       <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20242,7 +21550,7 @@
       <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -20250,7 +21558,7 @@
       <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>582</v>
       </c>
     </row>
@@ -20258,7 +21566,7 @@
       <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -20266,7 +21574,7 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20274,7 +21582,7 @@
       <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -20282,7 +21590,7 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>507</v>
       </c>
     </row>
@@ -20290,7 +21598,7 @@
       <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>462</v>
       </c>
     </row>
@@ -20298,7 +21606,7 @@
       <c r="H59" t="s">
         <v>593</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -20306,7 +21614,7 @@
       <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>344</v>
       </c>
     </row>
@@ -20314,7 +21622,7 @@
       <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>463</v>
       </c>
     </row>
@@ -20322,7 +21630,7 @@
       <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -20330,7 +21638,7 @@
       <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -20338,7 +21646,7 @@
       <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20346,7 +21654,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -20354,7 +21662,7 @@
       <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -20362,7 +21670,7 @@
       <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -20370,7 +21678,7 @@
       <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -20378,7 +21686,7 @@
       <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>438</v>
       </c>
     </row>
@@ -20386,7 +21694,7 @@
       <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>497</v>
       </c>
     </row>
@@ -20394,7 +21702,7 @@
       <c r="H71" t="s">
         <v>578</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -20402,7 +21710,7 @@
       <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>387</v>
       </c>
     </row>
@@ -20410,7 +21718,7 @@
       <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>439</v>
       </c>
     </row>
@@ -20418,7 +21726,7 @@
       <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -20426,7 +21734,7 @@
       <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -20434,7 +21742,7 @@
       <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -20442,7 +21750,7 @@
       <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -20450,7 +21758,7 @@
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -20458,7 +21766,7 @@
       <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -20466,7 +21774,7 @@
       <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>451</v>
       </c>
     </row>
@@ -20474,7 +21782,7 @@
       <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>464</v>
       </c>
     </row>
@@ -20482,7 +21790,7 @@
       <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -20490,7 +21798,7 @@
       <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -20498,7 +21806,7 @@
       <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -20506,7 +21814,7 @@
       <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>519</v>
       </c>
     </row>
@@ -20514,7 +21822,7 @@
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -20522,7 +21830,7 @@
       <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -20530,7 +21838,7 @@
       <c r="H88" t="s">
         <v>579</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -20538,7 +21846,7 @@
       <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>508</v>
       </c>
     </row>
@@ -20546,7 +21854,7 @@
       <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>615</v>
       </c>
     </row>
@@ -20554,7 +21862,7 @@
       <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -20562,7 +21870,7 @@
       <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>452</v>
       </c>
     </row>
@@ -20570,7 +21878,7 @@
       <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -20578,7 +21886,7 @@
       <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -20586,7 +21894,7 @@
       <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>600</v>
       </c>
     </row>
@@ -20594,7 +21902,7 @@
       <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>601</v>
       </c>
     </row>
@@ -20602,7 +21910,7 @@
       <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -20610,237 +21918,237 @@
       <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -32,7 +32,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -40,14 +40,14 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -56,6 +56,7 @@
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16299" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16886" uniqueCount="647">
   <si>
     <t>description</t>
   </si>
@@ -1987,6 +1988,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2025,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="459" x14ac:knownFonts="1">
+  <fonts count="475" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4899,8 +4930,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="772">
+  <fills count="799">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9271,8 +9403,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="883">
+  <borders count="915">
     <border>
       <left/>
       <right/>
@@ -18262,6 +18547,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18269,7 +18880,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19698,52 +20309,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="747" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="747" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="750" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="750" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="753" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="753" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="756" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="756" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="762" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="762" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="753" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="753" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="765" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="765" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="765" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="765" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="774" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="777" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="780" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="783" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="789" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="780" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="792" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="792" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20098,7 +20757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20186,7 +20845,7 @@
         <v>395</v>
       </c>
       <c r="Z1" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -20266,7 +20925,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>639</v>
       </c>
       <c r="U2" t="s">
         <v>396</v>
@@ -20284,7 +20943,7 @@
         <v>405</v>
       </c>
       <c r="Z2" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -20358,7 +21017,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="U3" t="s">
         <v>397</v>
@@ -20373,7 +21032,7 @@
         <v>406</v>
       </c>
       <c r="Z3" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -20444,7 +21103,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>398</v>
@@ -20459,7 +21118,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="AA4" t="s">
         <v>612</v>
@@ -20524,7 +21183,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>399</v>
@@ -20534,9 +21193,6 @@
       </c>
       <c r="X5" t="s">
         <v>357</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>633</v>
       </c>
       <c r="AA5" t="s">
         <v>605</v>
@@ -20601,16 +21257,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>400</v>
       </c>
       <c r="X6" t="s">
         <v>359</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>634</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -20666,7 +21319,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>401</v>
@@ -20727,6 +21380,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>389</v>
+      </c>
       <c r="U8" t="s">
         <v>402</v>
       </c>
@@ -20783,6 +21439,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>416</v>
+      </c>
       <c r="U9" t="s">
         <v>403</v>
       </c>
@@ -20904,7 +21563,7 @@
         <v>581</v>
       </c>
       <c r="O12" t="s">
-        <v>541</v>
+        <v>638</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -20941,6 +21600,9 @@
       <c r="N13" t="s">
         <v>434</v>
       </c>
+      <c r="O13" t="s">
+        <v>541</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -21018,7 +21680,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -21053,7 +21715,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -21082,7 +21744,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>465</v>
@@ -21108,7 +21770,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>525</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>499</v>
@@ -21128,7 +21790,7 @@
         <v>461</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>525</v>
       </c>
       <c r="AF19" t="s">
         <v>517</v>
@@ -21148,7 +21810,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>518</v>
@@ -21168,7 +21830,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>522</v>
@@ -21188,7 +21850,7 @@
         <v>609</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -21208,7 +21870,7 @@
         <v>494</v>
       </c>
       <c r="AA23" t="s">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>586</v>
@@ -21228,7 +21890,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>506</v>
       </c>
       <c r="AF24" t="s">
         <v>587</v>
@@ -21248,7 +21910,7 @@
         <v>390</v>
       </c>
       <c r="AA25" t="s">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>588</v>
@@ -21256,7 +21918,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F26" t="s">
         <v>447</v>
@@ -21268,7 +21930,7 @@
         <v>573</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -21288,7 +21950,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -21308,7 +21970,7 @@
         <v>432</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -21325,7 +21987,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -21342,7 +22004,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -21356,7 +22018,7 @@
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
@@ -21370,7 +22032,7 @@
         <v>273</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -21381,7 +22043,7 @@
         <v>283</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -21392,7 +22054,7 @@
         <v>531</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -21403,7 +22065,7 @@
         <v>258</v>
       </c>
       <c r="AA35" t="s">
-        <v>596</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -21414,7 +22076,7 @@
         <v>328</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37">
@@ -21425,7 +22087,7 @@
         <v>305</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -21436,7 +22098,7 @@
         <v>259</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -21447,7 +22109,7 @@
         <v>306</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -21455,7 +22117,7 @@
         <v>265</v>
       </c>
       <c r="AA40" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -21463,7 +22125,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -21471,7 +22133,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>606</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
@@ -21479,7 +22141,7 @@
         <v>592</v>
       </c>
       <c r="AA43" t="s">
-        <v>391</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44">
@@ -21487,7 +22149,7 @@
         <v>287</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
@@ -21495,7 +22157,7 @@
         <v>298</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -21503,7 +22165,7 @@
         <v>299</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -21511,7 +22173,7 @@
         <v>341</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -21519,7 +22181,7 @@
         <v>340</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -21527,7 +22189,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -21535,7 +22197,7 @@
         <v>318</v>
       </c>
       <c r="AA50" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -21543,7 +22205,7 @@
         <v>337</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52">
@@ -21551,7 +22213,7 @@
         <v>366</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -21559,7 +22221,7 @@
         <v>300</v>
       </c>
       <c r="AA53" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -21567,7 +22229,7 @@
         <v>354</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55">
@@ -21575,7 +22237,7 @@
         <v>329</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -21583,7 +22245,7 @@
         <v>266</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -21591,7 +22253,7 @@
         <v>290</v>
       </c>
       <c r="AA57" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -21599,7 +22261,7 @@
         <v>291</v>
       </c>
       <c r="AA58" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59">
@@ -21607,7 +22269,7 @@
         <v>593</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
@@ -21615,7 +22277,7 @@
         <v>292</v>
       </c>
       <c r="AA60" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -21623,7 +22285,7 @@
         <v>301</v>
       </c>
       <c r="AA61" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
@@ -21631,7 +22293,7 @@
         <v>310</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63">
@@ -21639,7 +22301,7 @@
         <v>335</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -21647,7 +22309,7 @@
         <v>307</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -21655,7 +22317,7 @@
         <v>308</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -21663,7 +22325,7 @@
         <v>367</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -21671,7 +22333,7 @@
         <v>368</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -21679,7 +22341,7 @@
         <v>343</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -21687,7 +22349,7 @@
         <v>311</v>
       </c>
       <c r="AA69" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -21695,7 +22357,7 @@
         <v>267</v>
       </c>
       <c r="AA70" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71">
@@ -21703,7 +22365,7 @@
         <v>578</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72">
@@ -21711,7 +22373,7 @@
         <v>312</v>
       </c>
       <c r="AA72" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -21719,7 +22381,7 @@
         <v>408</v>
       </c>
       <c r="AA73" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74">
@@ -21727,7 +22389,7 @@
         <v>302</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
@@ -21735,7 +22397,7 @@
         <v>409</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -21743,7 +22405,7 @@
         <v>260</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -21751,7 +22413,7 @@
         <v>532</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -21759,7 +22421,7 @@
         <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -21767,7 +22429,7 @@
         <v>278</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -21775,7 +22437,7 @@
         <v>284</v>
       </c>
       <c r="AA80" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -21783,7 +22445,7 @@
         <v>289</v>
       </c>
       <c r="AA81" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82">
@@ -21791,7 +22453,7 @@
         <v>427</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83">
@@ -21799,7 +22461,7 @@
         <v>330</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -21807,7 +22469,7 @@
         <v>268</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -21815,7 +22477,7 @@
         <v>279</v>
       </c>
       <c r="AA85" t="s">
-        <v>519</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -21823,7 +22485,7 @@
         <v>285</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87">
@@ -21831,7 +22493,7 @@
         <v>274</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -21839,7 +22501,7 @@
         <v>579</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -21847,7 +22509,7 @@
         <v>269</v>
       </c>
       <c r="AA89" t="s">
-        <v>508</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -21855,7 +22517,7 @@
         <v>286</v>
       </c>
       <c r="AA90" t="s">
-        <v>615</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91">
@@ -21863,7 +22525,7 @@
         <v>270</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92">
@@ -21871,7 +22533,7 @@
         <v>271</v>
       </c>
       <c r="AA92" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -21879,7 +22541,7 @@
         <v>303</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94">
@@ -21887,7 +22549,7 @@
         <v>309</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -21895,7 +22557,7 @@
         <v>293</v>
       </c>
       <c r="AA95" t="s">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -21903,7 +22565,7 @@
         <v>338</v>
       </c>
       <c r="AA96" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97">
@@ -21911,7 +22573,7 @@
         <v>275</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98">
@@ -21919,236 +22581,241 @@
         <v>276</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>613</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>441</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>619</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>530</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>620</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>620</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>621</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>622</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>646</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>597</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>623</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842C247-472B-4862-A189-F04D50C86AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0842C247-472B-4862-A189-F04D50C86AF3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="execution_count" sheetId="2" r:id="rId2"/>
-    <sheet name="function_format" sheetId="5" r:id="rId3"/>
-    <sheet name="waitForCondition" sheetId="6" r:id="rId4"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="execution_count" r:id="rId2" sheetId="2"/>
+    <sheet name="function_format" r:id="rId3" sheetId="5"/>
+    <sheet name="waitForCondition" r:id="rId4" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -49,15 +49,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="688">
   <si>
     <t>description</t>
   </si>
@@ -2022,13 +2022,128 @@
   </si>
   <si>
     <t>Check for failing condition</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2105,8 +2220,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2452,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2166,157 +2767,259 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2410,7 +3113,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2435,10 +3138,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2473,7 +3176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2508,7 +3211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2602,21 +3305,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2633,7 +3336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2685,26 +3388,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2784,25 +3487,28 @@
         <v>613</v>
       </c>
       <c r="AA1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>406</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -2882,25 +3588,28 @@
         <v>617</v>
       </c>
       <c r="AA2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>173</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>180</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>424</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>445</v>
       </c>
@@ -2971,25 +3680,28 @@
         <v>618</v>
       </c>
       <c r="AA3" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>357</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>181</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>500</v>
       </c>
@@ -3057,25 +3769,28 @@
         <v>619</v>
       </c>
       <c r="AA4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB4" t="s">
         <v>596</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>175</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>181</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>416</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>588</v>
       </c>
@@ -3131,25 +3846,28 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB5" t="s">
         <v>591</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>171</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>607</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>182</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>417</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3202,25 +3920,28 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>435</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>176</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>418</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3264,25 +3985,28 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>436</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>177</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>419</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3326,25 +4050,28 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>172</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>178</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>185</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>420</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3385,19 +4112,22 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3429,19 +4159,22 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>608</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -3470,16 +4203,19 @@
         <v>633</v>
       </c>
       <c r="AA11" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3508,16 +4244,19 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>188</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3546,16 +4285,19 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>189</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3581,16 +4323,19 @@
         <v>600</v>
       </c>
       <c r="AA14" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>190</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>526</v>
       </c>
@@ -3616,16 +4361,19 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB15" t="s">
         <v>620</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>191</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>491</v>
       </c>
@@ -3651,16 +4399,19 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB16" t="s">
         <v>601</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3680,16 +4431,19 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>456</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3709,13 +4463,16 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -3729,13 +4486,16 @@
         <v>452</v>
       </c>
       <c r="AA19" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB19" t="s">
         <v>516</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3749,13 +4509,16 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -3769,13 +4532,16 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>404</v>
       </c>
@@ -3789,13 +4555,16 @@
         <v>593</v>
       </c>
       <c r="AA22" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>405</v>
       </c>
@@ -3809,13 +4578,16 @@
         <v>485</v>
       </c>
       <c r="AA23" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>350</v>
       </c>
@@ -3829,13 +4601,16 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB24" t="s">
         <v>497</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -3849,13 +4624,16 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>613</v>
       </c>
@@ -3869,15 +4647,18 @@
         <v>632</v>
       </c>
       <c r="AA26" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB26" t="s">
         <v>582</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>650</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
@@ -3889,15 +4670,18 @@
         <v>563</v>
       </c>
       <c r="AA27" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>317</v>
@@ -3909,12 +4693,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -3926,12 +4713,15 @@
         <v>426</v>
       </c>
       <c r="AA29" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>439</v>
@@ -3943,12 +4733,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>222</v>
@@ -3960,12 +4753,15 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="F32" t="s">
         <v>223</v>
@@ -3974,10 +4770,16 @@
         <v>271</v>
       </c>
       <c r="AA32" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
       <c r="F33" t="s">
         <v>483</v>
       </c>
@@ -3985,10 +4787,13 @@
         <v>281</v>
       </c>
       <c r="AA33" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
         <v>484</v>
       </c>
@@ -3996,10 +4801,13 @@
         <v>522</v>
       </c>
       <c r="AA34" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
         <v>408</v>
       </c>
@@ -4007,10 +4815,13 @@
         <v>256</v>
       </c>
       <c r="AA35" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
         <v>64</v>
       </c>
@@ -4018,10 +4829,13 @@
         <v>326</v>
       </c>
       <c r="AA36" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB36" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
         <v>65</v>
       </c>
@@ -4029,10 +4843,13 @@
         <v>303</v>
       </c>
       <c r="AA37" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
         <v>66</v>
       </c>
@@ -4040,803 +4857,806 @@
         <v>257</v>
       </c>
       <c r="AA38" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
         <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="F40" t="s">
         <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="F41" t="s">
         <v>69</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="F42" t="s">
         <v>70</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="F43" t="s">
         <v>71</v>
       </c>
       <c r="H43" t="s">
         <v>579</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="F44" t="s">
         <v>631</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>580</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>567</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>523</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AB79" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AB80" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AB81" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AB83" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AB84" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="AB85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AB86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AB87" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="H88" t="s">
         <v>568</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AB88" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="AB89" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="AB90" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AB91" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="AB92" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="AB93" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AB94" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AB95" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AB96" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AB97" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="99">
+      <c r="AB99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="115">
+      <c r="AB115" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="116">
+      <c r="AB116" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="144">
+      <c r="AB144" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA146" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA147" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA148" t="s">
+    <row r="148">
+      <c r="AB148" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="149" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA149" t="s">
+    <row r="149">
+      <c r="AB149" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="150" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA150" t="s">
+    <row r="150">
+      <c r="AB150" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="151" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA151" t="s">
+    <row r="151">
+      <c r="AB151" t="s">
         <v>641</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="45.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.875" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4867,7 +5687,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -4888,7 +5708,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4905,7 +5725,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4950,7 +5770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>457</v>
       </c>
@@ -4977,7 +5797,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5000,7 +5820,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -5023,7 +5843,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>464</v>
@@ -5050,7 +5870,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>467</v>
@@ -5077,7 +5897,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -5102,7 +5922,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -5127,7 +5947,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>475</v>
@@ -5154,7 +5974,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>476</v>
@@ -5181,7 +6001,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -5206,7 +6026,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>477</v>
@@ -5233,7 +6053,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>480</v>
@@ -5260,7 +6080,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>481</v>
@@ -5287,7 +6107,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -5304,7 +6124,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -5321,7 +6141,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -5338,7 +6158,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -5355,7 +6175,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5372,7 +6192,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5389,7 +6209,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5406,7 +6226,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5423,7 +6243,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5440,7 +6260,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5457,7 +6277,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5474,7 +6294,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5491,7 +6311,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5508,7 +6328,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5525,7 +6345,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5542,7 +6362,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5559,7 +6379,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5576,7 +6396,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5593,7 +6413,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5610,7 +6430,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5627,7 +6447,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5644,7 +6464,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5661,7 +6481,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5678,7 +6498,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5695,7 +6515,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5712,7 +6532,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5729,7 +6549,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5746,7 +6566,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5763,7 +6583,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5780,7 +6600,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5797,7 +6617,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5814,7 +6634,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5831,7 +6651,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5849,7 +6669,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5857,55 +6677,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="8.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="35.875" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5936,7 +6756,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -5957,7 +6777,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5974,7 +6794,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -6019,7 +6839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>533</v>
       </c>
@@ -6048,7 +6868,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6073,7 +6893,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>538</v>
       </c>
@@ -6102,7 +6922,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -6127,7 +6947,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -6152,7 +6972,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -6177,7 +6997,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -6202,7 +7022,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>550</v>
@@ -6229,7 +7049,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -6254,7 +7074,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -6279,7 +7099,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -6304,7 +7124,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6321,7 +7141,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6338,7 +7158,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6355,7 +7175,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6372,7 +7192,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6389,7 +7209,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6406,7 +7226,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6423,7 +7243,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6440,7 +7260,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6457,7 +7277,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6474,7 +7294,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6491,7 +7311,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6508,7 +7328,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -6525,7 +7345,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6542,7 +7362,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6559,7 +7379,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6576,7 +7396,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6593,7 +7413,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6610,7 +7430,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6627,7 +7447,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6644,7 +7464,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6661,7 +7481,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6678,7 +7498,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6695,7 +7515,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6712,7 +7532,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6729,7 +7549,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6746,7 +7566,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6763,7 +7583,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6780,7 +7600,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6797,7 +7617,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6814,7 +7634,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6831,7 +7651,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6848,7 +7668,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6865,7 +7685,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6882,7 +7702,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6900,7 +7720,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6908,55 +7728,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.25" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.75" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.75" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="18.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="27.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="39.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="25.75" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +7807,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -7008,7 +7828,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -7025,7 +7845,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -7070,7 +7890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>623</v>
       </c>
@@ -7099,7 +7919,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -7126,7 +7946,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row ht="63" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -7151,7 +7971,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -7176,7 +7996,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -7201,7 +8021,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>649</v>
@@ -7228,7 +8048,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -7253,7 +8073,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -7270,7 +8090,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.5" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -7287,7 +8107,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -7304,7 +8124,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -7321,7 +8141,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -7338,7 +8158,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -7355,7 +8175,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -7372,7 +8192,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -7389,7 +8209,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -7406,7 +8226,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -7423,7 +8243,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -7440,7 +8260,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -7457,7 +8277,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -7474,7 +8294,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -7491,7 +8311,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -7508,7 +8328,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -7525,7 +8345,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -7542,7 +8362,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -7559,7 +8379,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -7576,7 +8396,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -7593,7 +8413,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -7610,7 +8430,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -7627,7 +8447,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -7644,7 +8464,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -7661,7 +8481,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7678,7 +8498,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7695,7 +8515,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7712,7 +8532,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7729,7 +8549,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7746,7 +8566,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7763,7 +8583,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7780,7 +8600,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7797,7 +8617,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7814,7 +8634,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7831,7 +8651,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7848,7 +8668,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7865,7 +8685,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -7882,7 +8702,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7899,7 +8719,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7917,7 +8737,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -7925,25 +8745,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -49,15 +49,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="690">
   <si>
     <t>description</t>
   </si>
@@ -2136,6 +2136,12 @@
   </si>
   <si>
     <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2434,8 +2440,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,6 +2565,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2772,7 +3021,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2963,55 +3212,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3396,7 +3696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3487,24 +3787,21 @@
         <v>613</v>
       </c>
       <c r="AA1" t="s">
-        <v>650</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>406</v>
       </c>
       <c r="AF1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3537,7 +3834,7 @@
         <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>689</v>
       </c>
       <c r="K2" t="s">
         <v>611</v>
@@ -3588,24 +3885,21 @@
         <v>617</v>
       </c>
       <c r="AA2" t="s">
-        <v>651</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="AC2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="s">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="AF2" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG2" t="s">
         <v>505</v>
       </c>
     </row>
@@ -3635,7 +3929,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>345</v>
@@ -3680,24 +3974,21 @@
         <v>618</v>
       </c>
       <c r="AA3" t="s">
-        <v>652</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="AC3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD3" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="AE3" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3724,7 +4015,7 @@
         <v>441</v>
       </c>
       <c r="J4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K4" t="s">
         <v>346</v>
@@ -3769,24 +4060,21 @@
         <v>619</v>
       </c>
       <c r="AA4" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
       <c r="AB4" t="s">
-        <v>596</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE4" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3813,7 +4101,7 @@
         <v>450</v>
       </c>
       <c r="J5" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
       <c r="K5" t="s">
         <v>347</v>
@@ -3846,24 +4134,21 @@
         <v>352</v>
       </c>
       <c r="AA5" t="s">
-        <v>654</v>
+        <v>591</v>
       </c>
       <c r="AB5" t="s">
-        <v>591</v>
+        <v>171</v>
       </c>
       <c r="AC5" t="s">
-        <v>171</v>
+        <v>607</v>
       </c>
       <c r="AD5" t="s">
-        <v>607</v>
+        <v>182</v>
       </c>
       <c r="AE5" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3890,7 +4175,7 @@
         <v>438</v>
       </c>
       <c r="J6" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="K6" t="s">
         <v>612</v>
@@ -3920,24 +4205,21 @@
         <v>354</v>
       </c>
       <c r="AA6" t="s">
-        <v>655</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>435</v>
       </c>
       <c r="AC6" t="s">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3957,6 +4239,9 @@
       <c r="I7" t="s">
         <v>437</v>
       </c>
+      <c r="J7" t="s">
+        <v>594</v>
+      </c>
       <c r="K7" t="s">
         <v>344</v>
       </c>
@@ -3985,24 +4270,21 @@
         <v>353</v>
       </c>
       <c r="AA7" t="s">
-        <v>656</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="AC7" t="s">
-        <v>436</v>
+        <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF7" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG7" t="s">
         <v>572</v>
       </c>
     </row>
@@ -4050,24 +4332,21 @@
         <v>355</v>
       </c>
       <c r="AA8" t="s">
-        <v>657</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AD8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="AF8" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG8" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4112,18 +4391,15 @@
         <v>356</v>
       </c>
       <c r="AA9" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB9" t="s">
         <v>206</v>
       </c>
+      <c r="AC9" t="s">
+        <v>179</v>
+      </c>
       <c r="AD9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -4159,18 +4435,15 @@
         <v>398</v>
       </c>
       <c r="AA10" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB10" t="s">
         <v>253</v>
       </c>
+      <c r="AC10" t="s">
+        <v>608</v>
+      </c>
       <c r="AD10" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4179,7 +4452,7 @@
         <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="H11" t="s">
         <v>348</v>
@@ -4203,15 +4476,12 @@
         <v>633</v>
       </c>
       <c r="AA11" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4220,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>590</v>
       </c>
       <c r="H12" t="s">
         <v>270</v>
@@ -4244,15 +4514,12 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>188</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4261,7 +4528,7 @@
         <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H13" t="s">
         <v>259</v>
@@ -4285,15 +4552,12 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB13" t="s">
         <v>322</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>189</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4302,7 +4566,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
         <v>312</v>
@@ -4323,15 +4587,12 @@
         <v>600</v>
       </c>
       <c r="AA14" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>190</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>506</v>
       </c>
     </row>
@@ -4340,7 +4601,7 @@
         <v>526</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>260</v>
@@ -4361,15 +4622,12 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>664</v>
-      </c>
-      <c r="AB15" t="s">
         <v>620</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>191</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4378,7 +4636,7 @@
         <v>491</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>261</v>
@@ -4399,15 +4657,12 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB16" t="s">
         <v>601</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>511</v>
       </c>
     </row>
@@ -4416,7 +4671,7 @@
         <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
         <v>313</v>
@@ -4431,15 +4686,12 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>456</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4448,7 +4700,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4463,12 +4715,9 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4477,7 +4726,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>627</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4486,12 +4735,9 @@
         <v>452</v>
       </c>
       <c r="AA19" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB19" t="s">
         <v>516</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4500,7 +4746,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -4509,12 +4755,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4523,7 +4766,7 @@
         <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -4532,12 +4775,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4546,7 +4786,7 @@
         <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>629</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -4555,12 +4795,9 @@
         <v>593</v>
       </c>
       <c r="AA22" t="s">
-        <v>671</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4569,7 +4806,7 @@
         <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -4578,12 +4815,9 @@
         <v>485</v>
       </c>
       <c r="AA23" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>575</v>
       </c>
     </row>
@@ -4592,7 +4826,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -4601,12 +4835,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB24" t="s">
         <v>497</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>576</v>
       </c>
     </row>
@@ -4615,7 +4846,7 @@
         <v>389</v>
       </c>
       <c r="F25" t="s">
-        <v>630</v>
+        <v>252</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -4624,12 +4855,9 @@
         <v>384</v>
       </c>
       <c r="AA25" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4638,7 +4866,7 @@
         <v>613</v>
       </c>
       <c r="F26" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4647,21 +4875,18 @@
         <v>632</v>
       </c>
       <c r="AA26" t="s">
-        <v>675</v>
-      </c>
-      <c r="AB26" t="s">
         <v>582</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>650</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>578</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -4670,21 +4895,18 @@
         <v>563</v>
       </c>
       <c r="AA27" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -4693,18 +4915,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>677</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -4713,18 +4932,15 @@
         <v>426</v>
       </c>
       <c r="AA29" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -4733,18 +4949,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -4753,187 +4966,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB31" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
       </c>
       <c r="AA32" t="s">
-        <v>681</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
       <c r="F33" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
       </c>
       <c r="AA33" t="s">
-        <v>682</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H34" t="s">
         <v>522</v>
       </c>
       <c r="AA34" t="s">
-        <v>683</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
       </c>
       <c r="AA35" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
       </c>
       <c r="AA36" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB36" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
       </c>
       <c r="AA37" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
       </c>
       <c r="AA38" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>579</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>631</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>631</v>
+      </c>
       <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4941,7 +5130,7 @@
       <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4949,7 +5138,7 @@
       <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4957,7 +5146,7 @@
       <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4965,7 +5154,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4973,7 +5162,7 @@
       <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4981,7 +5170,7 @@
       <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>621</v>
       </c>
     </row>
@@ -4989,7 +5178,7 @@
       <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4997,7 +5186,7 @@
       <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5005,7 +5194,7 @@
       <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5013,7 +5202,7 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5021,7 +5210,7 @@
       <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5029,7 +5218,7 @@
       <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5037,7 +5226,7 @@
       <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5045,7 +5234,7 @@
       <c r="H59" t="s">
         <v>580</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5053,7 +5242,7 @@
       <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5061,7 +5250,7 @@
       <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5069,7 +5258,7 @@
       <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5077,7 +5266,7 @@
       <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5085,7 +5274,7 @@
       <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5093,7 +5282,7 @@
       <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5101,7 +5290,7 @@
       <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5109,7 +5298,7 @@
       <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5117,7 +5306,7 @@
       <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5125,7 +5314,7 @@
       <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5133,7 +5322,7 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5141,7 +5330,7 @@
       <c r="H71" t="s">
         <v>567</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5149,7 +5338,7 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5157,7 +5346,7 @@
       <c r="H73" t="s">
         <v>402</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5165,7 +5354,7 @@
       <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5173,7 +5362,7 @@
       <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5181,7 +5370,7 @@
       <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5189,7 +5378,7 @@
       <c r="H77" t="s">
         <v>523</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5197,7 +5386,7 @@
       <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5205,7 +5394,7 @@
       <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>634</v>
       </c>
     </row>
@@ -5213,7 +5402,7 @@
       <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5221,7 +5410,7 @@
       <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5229,7 +5418,7 @@
       <c r="H82" t="s">
         <v>421</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5237,7 +5426,7 @@
       <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5245,7 +5434,7 @@
       <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5253,7 +5442,7 @@
       <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5261,7 +5450,7 @@
       <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5269,7 +5458,7 @@
       <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5277,7 +5466,7 @@
       <c r="H88" t="s">
         <v>568</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5285,7 +5474,7 @@
       <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5293,7 +5482,7 @@
       <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5301,7 +5490,7 @@
       <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5309,7 +5498,7 @@
       <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5317,7 +5506,7 @@
       <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5325,7 +5514,7 @@
       <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5333,7 +5522,7 @@
       <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5341,7 +5530,7 @@
       <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5349,7 +5538,7 @@
       <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5357,272 +5546,272 @@
       <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>641</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="690">
   <si>
     <t>description</t>
   </si>
@@ -2149,7 +2149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2547,8 +2547,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2565,6 +2779,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3021,7 +3507,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3263,55 +3749,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="51" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_part3.xlsx
@@ -31,12 +31,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5102" uniqueCount="694">
   <si>
     <t>description</t>
   </si>
@@ -2142,6 +2142,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2761,8 +2773,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2779,6 +3005,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3507,7 +4005,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3851,55 +4349,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" bo